--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_20_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1406160.872243039</v>
+        <v>-1406840.289344869</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5588220.064038461</v>
+        <v>5588220.064038463</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736551</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>218.7134039554108</v>
       </c>
       <c r="C11" t="n">
-        <v>52.63968647827528</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>239.9403233994415</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>151.8262626552655</v>
@@ -1427,7 +1427,7 @@
         <v>80.89774890663901</v>
       </c>
       <c r="V11" t="n">
-        <v>162.2197811955899</v>
+        <v>38.38036216027854</v>
       </c>
       <c r="W11" t="n">
         <v>187.5198806735468</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>29.18186672123199</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>56.4074501722953</v>
@@ -1500,22 +1500,22 @@
         <v>145.180098865789</v>
       </c>
       <c r="T12" t="n">
-        <v>14.08671310092214</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U12" t="n">
         <v>216.2882692949636</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>54.72196615872122</v>
       </c>
       <c r="W12" t="n">
         <v>67.51300991159491</v>
       </c>
       <c r="X12" t="n">
-        <v>24.5481180735552</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.9461872788439</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1528,7 @@
         <v>10.33011483010787</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>62.80462898650563</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>112.9136404279224</v>
       </c>
       <c r="V13" t="n">
-        <v>86.73825122973346</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9051373003467</v>
+        <v>171.2398759623607</v>
       </c>
       <c r="X13" t="n">
         <v>57.55023929614984</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>218.7134039554108</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D14" t="n">
-        <v>1.539588536319343</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>238.6199786155032</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>239.9403233994415</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>151.8262626552655</v>
@@ -1664,13 +1664,13 @@
         <v>80.89774890663901</v>
       </c>
       <c r="V14" t="n">
-        <v>162.2197811955899</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>10.0614079720556</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>206.8201389062934</v>
       </c>
       <c r="Y14" t="n">
         <v>218.2167367024922</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>46.76410977306272</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.4074501722953</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,16 +1737,16 @@
         <v>145.180098865789</v>
       </c>
       <c r="T15" t="n">
-        <v>14.08671310092214</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2882692949636</v>
+        <v>44.89856912753546</v>
       </c>
       <c r="V15" t="n">
-        <v>104.8500456109584</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>67.51300991159491</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
         <v>24.5481180735552</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.18326458892723</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>35.39157652215689</v>
@@ -1819,13 +1819,13 @@
         <v>58.28273605053796</v>
       </c>
       <c r="U16" t="n">
-        <v>112.9136404279224</v>
+        <v>172.2483790899364</v>
       </c>
       <c r="V16" t="n">
         <v>86.73825122973346</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9051373003467</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>57.55023929614984</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I18" t="n">
-        <v>56.4074501722953</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.82520712046109</v>
       </c>
       <c r="S18" t="n">
-        <v>105.1200875644185</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T18" t="n">
         <v>185.4764132683503</v>
@@ -1983,10 +1983,10 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>132.0264936981495</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49055522253069</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T19" t="n">
-        <v>229.6724362179661</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>12.3270578114734</v>
+        <v>42.37032016160915</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>11.31855468389773</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>28.04497661050305</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1132721997666</v>
+        <v>117.7555591507251</v>
       </c>
       <c r="H21" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>38.82520712046109</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.0186762889081</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.1298096364891</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20.91813010620345</v>
       </c>
       <c r="U22" t="n">
         <v>12.3270578114734</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>11.31855468389773</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>166.4467297691025</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.1268213389618</v>
+        <v>118.1268213389617</v>
       </c>
       <c r="C23" t="n">
         <v>106.1381382966435</v>
       </c>
       <c r="D23" t="n">
-        <v>97.11944234117152</v>
+        <v>97.11944234117146</v>
       </c>
       <c r="E23" t="n">
-        <v>118.8615799110771</v>
+        <v>118.861579911077</v>
       </c>
       <c r="F23" t="n">
         <v>138.0333959990542</v>
@@ -2333,7 +2333,7 @@
         <v>139.3537407829925</v>
       </c>
       <c r="H23" t="n">
-        <v>51.23968003881652</v>
+        <v>51.23968003881646</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>61.63319857914092</v>
+        <v>61.63319857914087</v>
       </c>
       <c r="W23" t="n">
-        <v>86.93329805709783</v>
+        <v>86.93329805709777</v>
       </c>
       <c r="X23" t="n">
         <v>106.2335562898444</v>
       </c>
       <c r="Y23" t="n">
-        <v>117.6301540860432</v>
+        <v>117.6301540860431</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.102403874585961</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T24" t="n">
-        <v>20.50234945502899</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9556149377512</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>155.3344859367049</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.4929323504436</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.12980963648911</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>121.0383542932713</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U25" t="n">
-        <v>12.3270578114734</v>
+        <v>12.32705781147334</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11.31855468389773</v>
+        <v>83.66566359994452</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>268.1009004848028</v>
       </c>
       <c r="E26" t="n">
-        <v>289.8430380547083</v>
+        <v>289.8430380547084</v>
       </c>
       <c r="F26" t="n">
         <v>309.0148541426855</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.39487552718226</v>
+        <v>70.39487552718228</v>
       </c>
       <c r="T26" t="n">
         <v>118.4374612367759</v>
@@ -2621,7 +2621,7 @@
         <v>277.2150144334757</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.6116122296744</v>
+        <v>288.6116122296745</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.72499035729012</v>
+        <v>80.72499035729015</v>
       </c>
       <c r="C28" t="n">
-        <v>66.92498520269061</v>
+        <v>66.92498520269064</v>
       </c>
       <c r="D28" t="n">
-        <v>50.546349600269</v>
+        <v>50.54634960026902</v>
       </c>
       <c r="E28" t="n">
-        <v>49.49409945604845</v>
+        <v>49.49409945604847</v>
       </c>
       <c r="F28" t="n">
-        <v>49.96102378423475</v>
+        <v>49.96102378423478</v>
       </c>
       <c r="G28" t="n">
-        <v>65.96079029750535</v>
+        <v>65.96079029750538</v>
       </c>
       <c r="H28" t="n">
-        <v>54.339661296459</v>
+        <v>54.33966129645903</v>
       </c>
       <c r="I28" t="n">
-        <v>33.49810771019771</v>
+        <v>33.49810771019774</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66960724833757</v>
+        <v>34.6696072483376</v>
       </c>
       <c r="S28" t="n">
-        <v>105.7864520493391</v>
+        <v>105.7864520493392</v>
       </c>
       <c r="T28" t="n">
         <v>128.6776115777202</v>
       </c>
       <c r="U28" t="n">
-        <v>183.3085159551046</v>
+        <v>183.3085159551047</v>
       </c>
       <c r="V28" t="n">
         <v>157.1331267569157</v>
@@ -2798,7 +2798,7 @@
         <v>268.1009004848028</v>
       </c>
       <c r="E29" t="n">
-        <v>289.8430380547084</v>
+        <v>289.8430380547083</v>
       </c>
       <c r="F29" t="n">
         <v>309.0148541426855</v>
@@ -2810,7 +2810,7 @@
         <v>222.2211381824478</v>
       </c>
       <c r="I29" t="n">
-        <v>46.46448383044608</v>
+        <v>46.4644838304461</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>277.2150144334757</v>
       </c>
       <c r="Y29" t="n">
-        <v>288.6116122296745</v>
+        <v>288.6116122296744</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.72499035729015</v>
+        <v>80.72499035729014</v>
       </c>
       <c r="C31" t="n">
-        <v>66.92498520269064</v>
+        <v>66.92498520269062</v>
       </c>
       <c r="D31" t="n">
-        <v>50.54634960026902</v>
+        <v>50.54634960026901</v>
       </c>
       <c r="E31" t="n">
-        <v>49.49409945604847</v>
+        <v>49.49409945604846</v>
       </c>
       <c r="F31" t="n">
-        <v>49.96102378423478</v>
+        <v>49.96102378423477</v>
       </c>
       <c r="G31" t="n">
-        <v>65.96079029750538</v>
+        <v>65.96079029750537</v>
       </c>
       <c r="H31" t="n">
-        <v>54.33966129645903</v>
+        <v>54.33966129645901</v>
       </c>
       <c r="I31" t="n">
-        <v>33.49810771019774</v>
+        <v>33.49810771019772</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.6696072483376</v>
+        <v>34.66960724833758</v>
       </c>
       <c r="S31" t="n">
         <v>105.7864520493392</v>
@@ -3004,7 +3004,7 @@
         <v>128.6776115777202</v>
       </c>
       <c r="U31" t="n">
-        <v>183.3085159551047</v>
+        <v>183.3085159551046</v>
       </c>
       <c r="V31" t="n">
         <v>157.1331267569157</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.108279482593</v>
+        <v>289.1082794825932</v>
       </c>
       <c r="C32" t="n">
-        <v>277.1195964402748</v>
+        <v>277.1195964402749</v>
       </c>
       <c r="D32" t="n">
-        <v>268.1009004848028</v>
+        <v>268.1009004848029</v>
       </c>
       <c r="E32" t="n">
-        <v>289.8430380547083</v>
+        <v>289.8430380547085</v>
       </c>
       <c r="F32" t="n">
-        <v>309.0148541426855</v>
+        <v>309.0148541426856</v>
       </c>
       <c r="G32" t="n">
-        <v>310.3351989266238</v>
+        <v>310.3351989266239</v>
       </c>
       <c r="H32" t="n">
-        <v>222.2211381824478</v>
+        <v>222.2211381824479</v>
       </c>
       <c r="I32" t="n">
-        <v>46.46448383044604</v>
+        <v>46.4644838304462</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.39487552718224</v>
+        <v>70.39487552718239</v>
       </c>
       <c r="T32" t="n">
-        <v>118.4374612367759</v>
+        <v>118.437461236776</v>
       </c>
       <c r="U32" t="n">
-        <v>151.2926244338212</v>
+        <v>151.2926244338214</v>
       </c>
       <c r="V32" t="n">
-        <v>232.6146567227722</v>
+        <v>232.6146567227723</v>
       </c>
       <c r="W32" t="n">
-        <v>257.9147562007291</v>
+        <v>257.9147562007292</v>
       </c>
       <c r="X32" t="n">
-        <v>277.2150144334757</v>
+        <v>277.2150144334759</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.6116122296744</v>
+        <v>288.6116122296746</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.72499035729011</v>
+        <v>80.72499035729027</v>
       </c>
       <c r="C34" t="n">
-        <v>66.92498520269059</v>
+        <v>66.92498520269075</v>
       </c>
       <c r="D34" t="n">
-        <v>50.54634960026898</v>
+        <v>50.54634960026914</v>
       </c>
       <c r="E34" t="n">
-        <v>49.49409945604843</v>
+        <v>49.49409945604859</v>
       </c>
       <c r="F34" t="n">
-        <v>49.96102378423474</v>
+        <v>49.9610237842349</v>
       </c>
       <c r="G34" t="n">
-        <v>65.96079029750534</v>
+        <v>65.9607902975055</v>
       </c>
       <c r="H34" t="n">
-        <v>54.33966129645897</v>
+        <v>54.33966129645914</v>
       </c>
       <c r="I34" t="n">
-        <v>33.49810771019769</v>
+        <v>33.49810771019785</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66960724833756</v>
+        <v>34.66960724833771</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7864520493391</v>
+        <v>105.7864520493393</v>
       </c>
       <c r="T34" t="n">
-        <v>128.6776115777202</v>
+        <v>128.6776115777203</v>
       </c>
       <c r="U34" t="n">
-        <v>183.3085159551046</v>
+        <v>183.3085159551048</v>
       </c>
       <c r="V34" t="n">
-        <v>157.1331267569157</v>
+        <v>157.1331267569159</v>
       </c>
       <c r="W34" t="n">
-        <v>182.300012827529</v>
+        <v>182.3000128275291</v>
       </c>
       <c r="X34" t="n">
-        <v>127.9451148233321</v>
+        <v>127.9451148233322</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.8199825793998</v>
+        <v>118.8199825793999</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.304922070038</v>
+        <v>210.3049220700379</v>
       </c>
       <c r="C35" t="n">
-        <v>198.3162390277198</v>
+        <v>198.3162390277196</v>
       </c>
       <c r="D35" t="n">
-        <v>189.2975430722477</v>
+        <v>189.2975430722476</v>
       </c>
       <c r="E35" t="n">
-        <v>211.0396806421533</v>
+        <v>211.0396806421531</v>
       </c>
       <c r="F35" t="n">
-        <v>230.2114967301304</v>
+        <v>230.2114967301303</v>
       </c>
       <c r="G35" t="n">
-        <v>231.5318415140688</v>
+        <v>231.5318415140686</v>
       </c>
       <c r="H35" t="n">
-        <v>143.4177807698927</v>
+        <v>143.4177807698926</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>39.63410382422089</v>
+        <v>39.63410382422076</v>
       </c>
       <c r="U35" t="n">
-        <v>72.48926702126624</v>
+        <v>72.4892670212661</v>
       </c>
       <c r="V35" t="n">
-        <v>153.8112993102172</v>
+        <v>153.811299310217</v>
       </c>
       <c r="W35" t="n">
-        <v>179.1113987881741</v>
+        <v>179.1113987881739</v>
       </c>
       <c r="X35" t="n">
-        <v>198.4116570209207</v>
+        <v>198.4116570209205</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.8082548171194</v>
+        <v>209.8082548171193</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>95.77124205704071</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02922133057647642</v>
+        <v>0.02922133057471079</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.921632944735109</v>
+        <v>120.1157448043593</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.1941118596233</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.98309463678412</v>
+        <v>26.98309463678398</v>
       </c>
       <c r="T37" t="n">
-        <v>49.87425416516519</v>
+        <v>49.87425416516505</v>
       </c>
       <c r="U37" t="n">
-        <v>104.5051585425496</v>
+        <v>104.5051585425495</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>103.496655414974</v>
+        <v>103.4966554149738</v>
       </c>
       <c r="X37" t="n">
-        <v>49.14175741077707</v>
+        <v>49.14175741077693</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.01662516684476</v>
+        <v>40.01662516684462</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.3049220700379</v>
+        <v>210.304922070038</v>
       </c>
       <c r="C38" t="n">
         <v>198.3162390277197</v>
       </c>
       <c r="D38" t="n">
-        <v>189.2975430722476</v>
+        <v>189.2975430722477</v>
       </c>
       <c r="E38" t="n">
-        <v>211.0396806421532</v>
+        <v>211.0396806421533</v>
       </c>
       <c r="F38" t="n">
-        <v>230.2114967301303</v>
+        <v>230.2114967301304</v>
       </c>
       <c r="G38" t="n">
-        <v>231.5318415140686</v>
+        <v>231.5318415140687</v>
       </c>
       <c r="H38" t="n">
-        <v>143.4177807698926</v>
+        <v>143.4177807698927</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>39.63410382422079</v>
+        <v>39.63410382422087</v>
       </c>
       <c r="U38" t="n">
-        <v>72.48926702126613</v>
+        <v>72.48926702126622</v>
       </c>
       <c r="V38" t="n">
-        <v>153.811299310217</v>
+        <v>153.8112993102171</v>
       </c>
       <c r="W38" t="n">
-        <v>179.1113987881739</v>
+        <v>179.111398788174</v>
       </c>
       <c r="X38" t="n">
         <v>198.4116570209206</v>
       </c>
       <c r="Y38" t="n">
-        <v>209.8082548171193</v>
+        <v>209.8082548171194</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.1132721997666</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>95.77124205704071</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.02922133057824204</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>185.4764132683503</v>
       </c>
       <c r="U39" t="n">
-        <v>89.20421842577321</v>
+        <v>216.2882692949636</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.921632944734995</v>
+        <v>1.92163294473508</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.98309463678401</v>
+        <v>145.1772064964075</v>
       </c>
       <c r="T40" t="n">
-        <v>49.87425416516508</v>
+        <v>49.87425416516516</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3033405953505</v>
+        <v>104.5051585425496</v>
       </c>
       <c r="V40" t="n">
-        <v>78.32976934436059</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>103.4966554149738</v>
+        <v>103.4966554149739</v>
       </c>
       <c r="X40" t="n">
-        <v>167.3358692704011</v>
+        <v>49.14175741077705</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.01662516684465</v>
+        <v>40.01662516684473</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3743,19 @@
         <v>198.7244810515166</v>
       </c>
       <c r="D41" t="n">
-        <v>189.7057850960445</v>
+        <v>189.7057850960446</v>
       </c>
       <c r="E41" t="n">
         <v>211.4479226659501</v>
       </c>
       <c r="F41" t="n">
-        <v>230.6197387539272</v>
+        <v>230.6197387539273</v>
       </c>
       <c r="G41" t="n">
-        <v>231.9400835378655</v>
+        <v>231.9400835378656</v>
       </c>
       <c r="H41" t="n">
-        <v>143.8260227936895</v>
+        <v>143.8260227936896</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>40.04234584801769</v>
+        <v>40.04234584801772</v>
       </c>
       <c r="U41" t="n">
-        <v>72.89750904506303</v>
+        <v>72.89750904506306</v>
       </c>
       <c r="V41" t="n">
-        <v>154.2195413340139</v>
+        <v>154.219541334014</v>
       </c>
       <c r="W41" t="n">
-        <v>179.5196408119708</v>
+        <v>179.5196408119709</v>
       </c>
       <c r="X41" t="n">
         <v>198.8198990447175</v>
@@ -3825,13 +3825,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>94.48664731133772</v>
       </c>
       <c r="H42" t="n">
         <v>95.77124205704071</v>
@@ -3867,7 +3867,7 @@
         <v>38.82520712046109</v>
       </c>
       <c r="S42" t="n">
-        <v>94.10901633342873</v>
+        <v>145.180098865789</v>
       </c>
       <c r="T42" t="n">
         <v>185.4764132683503</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.329874968531897</v>
+        <v>2.329874968531925</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R43" t="n">
-        <v>135.6644318885835</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>186.4532624940473</v>
+        <v>127.5979447171374</v>
       </c>
       <c r="T43" t="n">
-        <v>50.28249618896198</v>
+        <v>50.28249618896201</v>
       </c>
       <c r="U43" t="n">
-        <v>104.9134005663464</v>
+        <v>284.3033405953505</v>
       </c>
       <c r="V43" t="n">
-        <v>78.73801136815749</v>
+        <v>78.73801136815752</v>
       </c>
       <c r="W43" t="n">
-        <v>103.9048974387707</v>
+        <v>103.9048974387708</v>
       </c>
       <c r="X43" t="n">
-        <v>49.54999943457386</v>
+        <v>49.54999943457389</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.42486719064155</v>
+        <v>40.42486719064158</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3980,19 @@
         <v>198.7244810515166</v>
       </c>
       <c r="D44" t="n">
-        <v>189.7057850960445</v>
+        <v>189.7057850960446</v>
       </c>
       <c r="E44" t="n">
         <v>211.4479226659501</v>
       </c>
       <c r="F44" t="n">
-        <v>230.6197387539272</v>
+        <v>230.6197387539273</v>
       </c>
       <c r="G44" t="n">
-        <v>231.9400835378655</v>
+        <v>231.9400835378656</v>
       </c>
       <c r="H44" t="n">
-        <v>143.8260227936895</v>
+        <v>143.8260227936896</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>40.04234584801769</v>
+        <v>40.04234584801772</v>
       </c>
       <c r="U44" t="n">
-        <v>72.89750904506303</v>
+        <v>72.89750904506306</v>
       </c>
       <c r="V44" t="n">
-        <v>154.2195413340139</v>
+        <v>154.219541334014</v>
       </c>
       <c r="W44" t="n">
-        <v>179.5196408119708</v>
+        <v>179.5196408119709</v>
       </c>
       <c r="X44" t="n">
         <v>198.8198990447175</v>
@@ -4065,13 +4065,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>50.93374739453878</v>
       </c>
       <c r="G45" t="n">
         <v>127.1132721997666</v>
       </c>
       <c r="H45" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>56.4074501722953</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.82520712046109</v>
       </c>
       <c r="S45" t="n">
         <v>145.180098865789</v>
       </c>
       <c r="T45" t="n">
-        <v>46.11726565668453</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U45" t="n">
         <v>216.2882692949636</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.329874968531897</v>
+        <v>2.329874968531925</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.39133666058091</v>
+        <v>206.781276689585</v>
       </c>
       <c r="T46" t="n">
-        <v>50.28249618896198</v>
+        <v>165.6189138820075</v>
       </c>
       <c r="U46" t="n">
         <v>104.9134005663464</v>
       </c>
       <c r="V46" t="n">
-        <v>78.73801136815749</v>
+        <v>78.73801136815752</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>103.9048974387708</v>
       </c>
       <c r="X46" t="n">
-        <v>164.8864171276196</v>
+        <v>49.54999943457389</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.42486719064155</v>
+        <v>40.42486719064158</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>472.4223945544629</v>
+        <v>376.5900865543654</v>
       </c>
       <c r="C11" t="n">
-        <v>419.2509940713561</v>
+        <v>376.5900865543654</v>
       </c>
       <c r="D11" t="n">
-        <v>419.2509940713561</v>
+        <v>176.8870310416174</v>
       </c>
       <c r="E11" t="n">
-        <v>419.2509940713561</v>
+        <v>176.8870310416174</v>
       </c>
       <c r="F11" t="n">
-        <v>419.2509940713561</v>
+        <v>176.8870310416174</v>
       </c>
       <c r="G11" t="n">
-        <v>176.8870310416173</v>
+        <v>176.8870310416174</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="I11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="J11" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="K11" t="n">
-        <v>23.52716977367232</v>
+        <v>142.9531442869396</v>
       </c>
       <c r="L11" t="n">
-        <v>23.52716977367232</v>
+        <v>142.9531442869396</v>
       </c>
       <c r="M11" t="n">
-        <v>142.9531442869391</v>
+        <v>434.1018702361352</v>
       </c>
       <c r="N11" t="n">
-        <v>434.101870236134</v>
+        <v>725.2505961853308</v>
       </c>
       <c r="O11" t="n">
-        <v>725.250596185329</v>
+        <v>1016.399322134526</v>
       </c>
       <c r="P11" t="n">
-        <v>1016.399322134524</v>
+        <v>1016.399322134526</v>
       </c>
       <c r="Q11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683619</v>
       </c>
       <c r="R11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683619</v>
       </c>
       <c r="S11" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683619</v>
       </c>
       <c r="T11" t="n">
-        <v>1127.830624330491</v>
+        <v>1127.830624330494</v>
       </c>
       <c r="U11" t="n">
-        <v>1046.115726444998</v>
+        <v>1046.115726445</v>
       </c>
       <c r="V11" t="n">
-        <v>882.2573616009671</v>
+        <v>1007.34768385886</v>
       </c>
       <c r="W11" t="n">
-        <v>692.8433407185964</v>
+        <v>817.9336629764896</v>
       </c>
       <c r="X11" t="n">
-        <v>692.8433407185964</v>
+        <v>817.9336629764896</v>
       </c>
       <c r="Y11" t="n">
-        <v>472.4223945544629</v>
+        <v>597.5127168123561</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>316.0816575201633</v>
+        <v>109.9810252216797</v>
       </c>
       <c r="C12" t="n">
-        <v>316.0816575201633</v>
+        <v>109.9810252216797</v>
       </c>
       <c r="D12" t="n">
-        <v>177.2430205103753</v>
+        <v>109.9810252216797</v>
       </c>
       <c r="E12" t="n">
-        <v>177.2430205103753</v>
+        <v>80.50439216993026</v>
       </c>
       <c r="F12" t="n">
-        <v>177.2430205103753</v>
+        <v>80.50439216993026</v>
       </c>
       <c r="G12" t="n">
-        <v>177.2430205103753</v>
+        <v>80.50439216993026</v>
       </c>
       <c r="H12" t="n">
-        <v>80.5043921699302</v>
+        <v>80.50439216993026</v>
       </c>
       <c r="I12" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="J12" t="n">
-        <v>23.52716977367232</v>
+        <v>114.4548830157155</v>
       </c>
       <c r="K12" t="n">
-        <v>23.52716977367232</v>
+        <v>114.4548830157155</v>
       </c>
       <c r="L12" t="n">
-        <v>23.52716977367232</v>
+        <v>405.6036089649111</v>
       </c>
       <c r="M12" t="n">
-        <v>314.6758957228673</v>
+        <v>696.7523349141067</v>
       </c>
       <c r="N12" t="n">
-        <v>605.8246216720622</v>
+        <v>696.7523349141067</v>
       </c>
       <c r="O12" t="n">
-        <v>896.9733476212572</v>
+        <v>977.1438671382684</v>
       </c>
       <c r="P12" t="n">
-        <v>1176.358488683616</v>
+        <v>977.1438671382684</v>
       </c>
       <c r="Q12" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683619</v>
       </c>
       <c r="R12" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683619</v>
       </c>
       <c r="S12" t="n">
-        <v>1029.711924172718</v>
+        <v>1029.711924172721</v>
       </c>
       <c r="T12" t="n">
-        <v>1015.482921040473</v>
+        <v>842.3620117804475</v>
       </c>
       <c r="U12" t="n">
-        <v>797.0099217526314</v>
+        <v>623.8890124926054</v>
       </c>
       <c r="V12" t="n">
-        <v>568.6142992009653</v>
+        <v>568.6142992009678</v>
       </c>
       <c r="W12" t="n">
-        <v>500.4193396943038</v>
+        <v>500.4193396943063</v>
       </c>
       <c r="X12" t="n">
-        <v>475.6232608321268</v>
+        <v>302.5023515721009</v>
       </c>
       <c r="Y12" t="n">
-        <v>316.0816575201633</v>
+        <v>109.9810252216797</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>256.5821584902806</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="C13" t="n">
-        <v>86.96618895196085</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="D13" t="n">
-        <v>86.96618895196085</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="E13" t="n">
-        <v>86.96618895196085</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="F13" t="n">
-        <v>86.96618895196085</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="G13" t="n">
-        <v>86.96618895196085</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="H13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="I13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="J13" t="n">
-        <v>23.52716977367232</v>
+        <v>23.52716977367237</v>
       </c>
       <c r="K13" t="n">
-        <v>88.75452017135994</v>
+        <v>88.75452017135999</v>
       </c>
       <c r="L13" t="n">
         <v>229.8283602936762</v>
       </c>
       <c r="M13" t="n">
-        <v>390.4883917441606</v>
+        <v>390.4883917441607</v>
       </c>
       <c r="N13" t="n">
         <v>550.5627442088387</v>
@@ -5233,16 +5233,16 @@
         <v>574.7123097110436</v>
       </c>
       <c r="V13" t="n">
-        <v>487.0979145294947</v>
+        <v>313.9770052694662</v>
       </c>
       <c r="W13" t="n">
-        <v>374.0624223069223</v>
+        <v>141.007433590314</v>
       </c>
       <c r="X13" t="n">
-        <v>315.9308674623264</v>
+        <v>82.87587874571824</v>
       </c>
       <c r="Y13" t="n">
-        <v>267.016617914632</v>
+        <v>33.96162919802376</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>661.8364154368337</v>
+        <v>385.6998804487814</v>
       </c>
       <c r="C14" t="n">
-        <v>661.8364154368337</v>
+        <v>176.8870310416171</v>
       </c>
       <c r="D14" t="n">
-        <v>660.2812755011574</v>
+        <v>176.8870310416171</v>
       </c>
       <c r="E14" t="n">
-        <v>660.2812755011574</v>
+        <v>176.8870310416171</v>
       </c>
       <c r="F14" t="n">
-        <v>419.2509940713562</v>
+        <v>176.8870310416171</v>
       </c>
       <c r="G14" t="n">
-        <v>176.8870310416173</v>
+        <v>176.8870310416171</v>
       </c>
       <c r="H14" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I14" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J14" t="n">
         <v>147.0265863185276</v>
       </c>
       <c r="K14" t="n">
-        <v>438.1753122677225</v>
+        <v>438.1753122677222</v>
       </c>
       <c r="L14" t="n">
-        <v>594.0610367852262</v>
+        <v>438.1753122677222</v>
       </c>
       <c r="M14" t="n">
-        <v>885.2097627344211</v>
+        <v>438.1753122677222</v>
       </c>
       <c r="N14" t="n">
-        <v>1176.358488683616</v>
+        <v>729.324038216917</v>
       </c>
       <c r="O14" t="n">
-        <v>1176.358488683616</v>
+        <v>885.2097627344203</v>
       </c>
       <c r="P14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S14" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T14" t="n">
-        <v>1127.830624330491</v>
+        <v>1127.83062433049</v>
       </c>
       <c r="U14" t="n">
-        <v>1046.115726444998</v>
+        <v>1046.115726444996</v>
       </c>
       <c r="V14" t="n">
-        <v>882.2573616009672</v>
+        <v>1046.115726444996</v>
       </c>
       <c r="W14" t="n">
-        <v>882.2573616009672</v>
+        <v>1035.952688089384</v>
       </c>
       <c r="X14" t="n">
-        <v>882.2573616009672</v>
+        <v>827.0434568709057</v>
       </c>
       <c r="Y14" t="n">
-        <v>661.8364154368337</v>
+        <v>606.6225107067721</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>366.3710391228469</v>
+        <v>70.76364429191747</v>
       </c>
       <c r="C15" t="n">
-        <v>366.3710391228469</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D15" t="n">
-        <v>227.532402113059</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E15" t="n">
-        <v>80.5043921699302</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F15" t="n">
-        <v>80.5043921699302</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G15" t="n">
-        <v>80.5043921699302</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H15" t="n">
-        <v>80.5043921699302</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I15" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J15" t="n">
-        <v>23.52716977367232</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K15" t="n">
-        <v>23.52716977367232</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="L15" t="n">
-        <v>314.6758957228673</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="M15" t="n">
-        <v>594.0610367852262</v>
+        <v>405.6036089649101</v>
       </c>
       <c r="N15" t="n">
-        <v>885.2097627344211</v>
+        <v>685.9951411890702</v>
       </c>
       <c r="O15" t="n">
-        <v>1176.358488683616</v>
+        <v>685.9951411890702</v>
       </c>
       <c r="P15" t="n">
-        <v>1176.358488683616</v>
+        <v>977.1438671382648</v>
       </c>
       <c r="Q15" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R15" t="n">
-        <v>1137.141107753857</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="S15" t="n">
-        <v>990.4945432429594</v>
+        <v>990.4945432429582</v>
       </c>
       <c r="T15" t="n">
-        <v>976.2655401107148</v>
+        <v>803.1446308506852</v>
       </c>
       <c r="U15" t="n">
-        <v>757.7925408228728</v>
+        <v>757.7925408228716</v>
       </c>
       <c r="V15" t="n">
-        <v>651.8834038421066</v>
+        <v>529.3969182712055</v>
       </c>
       <c r="W15" t="n">
-        <v>583.6884443354451</v>
+        <v>288.0810495045156</v>
       </c>
       <c r="X15" t="n">
-        <v>558.8923654732681</v>
+        <v>263.2849706423386</v>
       </c>
       <c r="Y15" t="n">
-        <v>366.3710391228469</v>
+        <v>70.76364429191747</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.5990629459096</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="C16" t="n">
-        <v>176.5990629459096</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J16" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K16" t="n">
-        <v>88.75452017135994</v>
+        <v>88.75452017135991</v>
       </c>
       <c r="L16" t="n">
         <v>229.8283602936762</v>
@@ -5458,28 +5458,28 @@
         <v>783.387009711667</v>
       </c>
       <c r="R16" t="n">
-        <v>703.4039141672961</v>
+        <v>783.387009711667</v>
       </c>
       <c r="S16" t="n">
-        <v>667.6548469731982</v>
+        <v>747.6379425175692</v>
       </c>
       <c r="T16" t="n">
-        <v>608.7833964170993</v>
+        <v>688.7664919614703</v>
       </c>
       <c r="U16" t="n">
-        <v>494.7292141666727</v>
+        <v>514.7782302544638</v>
       </c>
       <c r="V16" t="n">
-        <v>407.1148189851237</v>
+        <v>427.1638350729148</v>
       </c>
       <c r="W16" t="n">
-        <v>294.0793267625513</v>
+        <v>141.007433590314</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9477719179555</v>
+        <v>82.87587874571815</v>
       </c>
       <c r="Y16" t="n">
-        <v>187.033522370261</v>
+        <v>33.96162919802369</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>680.8463388340322</v>
+        <v>680.846338834031</v>
       </c>
       <c r="C17" t="n">
-        <v>573.6360981303519</v>
+        <v>573.6360981303507</v>
       </c>
       <c r="D17" t="n">
-        <v>475.5356513210879</v>
+        <v>475.5356513210866</v>
       </c>
       <c r="E17" t="n">
-        <v>355.4734493907071</v>
+        <v>355.4734493907058</v>
       </c>
       <c r="F17" t="n">
-        <v>216.0457766643897</v>
+        <v>216.0457766643885</v>
       </c>
       <c r="G17" t="n">
-        <v>75.28442233813345</v>
+        <v>75.28442233813342</v>
       </c>
       <c r="H17" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I17" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J17" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K17" t="n">
-        <v>314.6758957228673</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="L17" t="n">
-        <v>605.8246216720622</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="M17" t="n">
-        <v>605.8246216720622</v>
+        <v>314.675895722867</v>
       </c>
       <c r="N17" t="n">
-        <v>605.8246216720622</v>
+        <v>605.8246216720617</v>
       </c>
       <c r="O17" t="n">
-        <v>885.2097627344211</v>
+        <v>725.250596185328</v>
       </c>
       <c r="P17" t="n">
-        <v>1176.358488683616</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="Q17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U17" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V17" t="n">
-        <v>1114.10273254307</v>
+        <v>1114.102732543068</v>
       </c>
       <c r="W17" t="n">
-        <v>1026.291320364183</v>
+        <v>1026.291320364182</v>
       </c>
       <c r="X17" t="n">
-        <v>918.9846978491889</v>
+        <v>918.9846978491878</v>
       </c>
       <c r="Y17" t="n">
-        <v>800.1663603885391</v>
+        <v>800.1663603885379</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>215.1981902200558</v>
+        <v>281.9694708731628</v>
       </c>
       <c r="C18" t="n">
-        <v>215.1981902200558</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="D18" t="n">
-        <v>215.1981902200558</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="E18" t="n">
-        <v>215.1981902200558</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="F18" t="n">
-        <v>80.5043921699302</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="G18" t="n">
-        <v>80.5043921699302</v>
+        <v>120.2657981141175</v>
       </c>
       <c r="H18" t="n">
-        <v>80.5043921699302</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I18" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J18" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K18" t="n">
         <v>305.4437334532581</v>
       </c>
       <c r="L18" t="n">
-        <v>596.592459402453</v>
+        <v>394.8464152398755</v>
       </c>
       <c r="M18" t="n">
-        <v>596.592459402453</v>
+        <v>394.8464152398755</v>
       </c>
       <c r="N18" t="n">
-        <v>885.2097627344211</v>
+        <v>394.8464152398755</v>
       </c>
       <c r="O18" t="n">
-        <v>1176.358488683616</v>
+        <v>685.9951411890702</v>
       </c>
       <c r="P18" t="n">
-        <v>1176.358488683616</v>
+        <v>977.1438671382648</v>
       </c>
       <c r="Q18" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R18" t="n">
-        <v>1176.358488683616</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="S18" t="n">
-        <v>1070.17658205289</v>
+        <v>990.4945432429582</v>
       </c>
       <c r="T18" t="n">
-        <v>882.8266696606173</v>
+        <v>803.1446308506852</v>
       </c>
       <c r="U18" t="n">
-        <v>882.8266696606173</v>
+        <v>803.1446308506852</v>
       </c>
       <c r="V18" t="n">
-        <v>654.4310471089512</v>
+        <v>574.7490082990191</v>
       </c>
       <c r="W18" t="n">
-        <v>413.1151783422613</v>
+        <v>441.3889136544237</v>
       </c>
       <c r="X18" t="n">
-        <v>215.1981902200558</v>
+        <v>441.3889136544237</v>
       </c>
       <c r="Y18" t="n">
-        <v>215.1981902200558</v>
+        <v>441.3889136544237</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.5101928295082</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="C19" t="n">
-        <v>527.5101928295082</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D19" t="n">
-        <v>374.4382996572709</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E19" t="n">
-        <v>374.4382996572709</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F19" t="n">
-        <v>221.957644683048</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G19" t="n">
-        <v>53.3156093923902</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H19" t="n">
-        <v>53.3156093923902</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I19" t="n">
-        <v>53.3156093923902</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J19" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K19" t="n">
-        <v>88.75452017135994</v>
+        <v>88.75452017135991</v>
       </c>
       <c r="L19" t="n">
         <v>229.8283602936762</v>
@@ -5698,25 +5698,25 @@
         <v>783.387009711667</v>
       </c>
       <c r="S19" t="n">
-        <v>783.387009711667</v>
+        <v>574.5170332575407</v>
       </c>
       <c r="T19" t="n">
-        <v>551.3946498955396</v>
+        <v>574.5170332575407</v>
       </c>
       <c r="U19" t="n">
-        <v>538.9430763485968</v>
+        <v>531.7187300639961</v>
       </c>
       <c r="V19" t="n">
-        <v>538.9430763485968</v>
+        <v>531.7187300639961</v>
       </c>
       <c r="W19" t="n">
-        <v>527.5101928295082</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="X19" t="n">
-        <v>527.5101928295082</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.5101928295082</v>
+        <v>23.5271697736723</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>680.8463388340317</v>
+        <v>680.846338834031</v>
       </c>
       <c r="C20" t="n">
-        <v>573.6360981303517</v>
+        <v>573.6360981303507</v>
       </c>
       <c r="D20" t="n">
-        <v>475.5356513210875</v>
+        <v>475.5356513210866</v>
       </c>
       <c r="E20" t="n">
-        <v>355.4734493907059</v>
+        <v>355.4734493907058</v>
       </c>
       <c r="F20" t="n">
-        <v>216.0457766643885</v>
+        <v>216.0457766643883</v>
       </c>
       <c r="G20" t="n">
-        <v>75.28442233813345</v>
+        <v>75.28442233813342</v>
       </c>
       <c r="H20" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I20" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J20" t="n">
-        <v>23.52716977367232</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="K20" t="n">
-        <v>23.52716977367232</v>
+        <v>438.1753122677222</v>
       </c>
       <c r="L20" t="n">
-        <v>23.52716977367232</v>
+        <v>729.324038216917</v>
       </c>
       <c r="M20" t="n">
-        <v>142.9531442869391</v>
+        <v>1020.472764166112</v>
       </c>
       <c r="N20" t="n">
-        <v>434.101870236134</v>
+        <v>1020.472764166112</v>
       </c>
       <c r="O20" t="n">
-        <v>725.250596185329</v>
+        <v>1020.472764166112</v>
       </c>
       <c r="P20" t="n">
-        <v>1016.399322134524</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U20" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V20" t="n">
-        <v>1114.10273254307</v>
+        <v>1114.102732543068</v>
       </c>
       <c r="W20" t="n">
-        <v>1026.291320364183</v>
+        <v>1026.291320364182</v>
       </c>
       <c r="X20" t="n">
-        <v>918.9846978491884</v>
+        <v>918.9846978491878</v>
       </c>
       <c r="Y20" t="n">
-        <v>800.1663603885386</v>
+        <v>800.1663603885379</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>276.9913019628747</v>
+        <v>451.2038617190031</v>
       </c>
       <c r="C21" t="n">
-        <v>248.6630427603463</v>
+        <v>289.5001889599578</v>
       </c>
       <c r="D21" t="n">
-        <v>248.6630427603463</v>
+        <v>289.5001889599578</v>
       </c>
       <c r="E21" t="n">
-        <v>248.6630427603463</v>
+        <v>142.472179016829</v>
       </c>
       <c r="F21" t="n">
-        <v>248.6630427603463</v>
+        <v>142.472179016829</v>
       </c>
       <c r="G21" t="n">
-        <v>120.2657981141175</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H21" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I21" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J21" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K21" t="n">
-        <v>305.4437334532581</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="L21" t="n">
-        <v>305.4437334532581</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="M21" t="n">
-        <v>594.0610367852262</v>
+        <v>314.675895722867</v>
       </c>
       <c r="N21" t="n">
-        <v>885.2097627344211</v>
+        <v>605.8246216720617</v>
       </c>
       <c r="O21" t="n">
-        <v>885.2097627344211</v>
+        <v>896.9733476212564</v>
       </c>
       <c r="P21" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="Q21" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R21" t="n">
-        <v>1137.141107753857</v>
+        <v>1137.141107753856</v>
       </c>
       <c r="S21" t="n">
-        <v>1137.141107753857</v>
+        <v>990.4945432429582</v>
       </c>
       <c r="T21" t="n">
-        <v>1137.141107753857</v>
+        <v>803.1446308506852</v>
       </c>
       <c r="U21" t="n">
-        <v>1137.141107753857</v>
+        <v>803.1446308506852</v>
       </c>
       <c r="V21" t="n">
-        <v>908.7454852021913</v>
+        <v>803.1446308506852</v>
       </c>
       <c r="W21" t="n">
-        <v>667.4296164355013</v>
+        <v>803.1446308506852</v>
       </c>
       <c r="X21" t="n">
-        <v>469.5126283132959</v>
+        <v>803.1446308506852</v>
       </c>
       <c r="Y21" t="n">
-        <v>276.9913019628747</v>
+        <v>610.623304500264</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>217.021968288241</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="C22" t="n">
-        <v>217.021968288241</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D22" t="n">
-        <v>63.95007511600373</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E22" t="n">
-        <v>63.95007511600373</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F22" t="n">
-        <v>63.95007511600373</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G22" t="n">
-        <v>63.95007511600373</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H22" t="n">
-        <v>63.95007511600373</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I22" t="n">
-        <v>63.95007511600373</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J22" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K22" t="n">
-        <v>88.75452017135994</v>
+        <v>88.75452017135991</v>
       </c>
       <c r="L22" t="n">
         <v>229.8283602936762</v>
@@ -5929,31 +5929,31 @@
         <v>783.387009711667</v>
       </c>
       <c r="Q22" t="n">
-        <v>768.1043737152133</v>
+        <v>783.387009711667</v>
       </c>
       <c r="R22" t="n">
-        <v>631.0695940297755</v>
+        <v>783.387009711667</v>
       </c>
       <c r="S22" t="n">
-        <v>631.0695940297755</v>
+        <v>574.5170332575407</v>
       </c>
       <c r="T22" t="n">
-        <v>631.0695940297755</v>
+        <v>553.3876089078402</v>
       </c>
       <c r="U22" t="n">
-        <v>618.6180204828328</v>
+        <v>540.9360353608974</v>
       </c>
       <c r="V22" t="n">
-        <v>618.6180204828328</v>
+        <v>540.9360353608974</v>
       </c>
       <c r="W22" t="n">
-        <v>607.1851369637442</v>
+        <v>254.7796338782965</v>
       </c>
       <c r="X22" t="n">
-        <v>439.0571270959639</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.021968288241</v>
+        <v>23.5271697736723</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>680.8463388340322</v>
+        <v>680.846338834031</v>
       </c>
       <c r="C23" t="n">
-        <v>573.6360981303518</v>
+        <v>573.6360981303508</v>
       </c>
       <c r="D23" t="n">
-        <v>475.5356513210876</v>
+        <v>475.5356513210867</v>
       </c>
       <c r="E23" t="n">
-        <v>355.4734493907068</v>
+        <v>355.4734493907059</v>
       </c>
       <c r="F23" t="n">
-        <v>216.0457766643894</v>
+        <v>216.0457766643885</v>
       </c>
       <c r="G23" t="n">
-        <v>75.28442233813428</v>
+        <v>75.28442233813337</v>
       </c>
       <c r="H23" t="n">
-        <v>23.52716977367314</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I23" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J23" t="n">
-        <v>23.52716977367232</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="K23" t="n">
-        <v>314.6758957228673</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="L23" t="n">
-        <v>605.8246216720622</v>
+        <v>147.0265863185276</v>
       </c>
       <c r="M23" t="n">
-        <v>605.8246216720622</v>
+        <v>438.1753122677222</v>
       </c>
       <c r="N23" t="n">
-        <v>896.9733476212572</v>
+        <v>438.1753122677222</v>
       </c>
       <c r="O23" t="n">
-        <v>896.9733476212572</v>
+        <v>725.250596185328</v>
       </c>
       <c r="P23" t="n">
-        <v>1176.358488683616</v>
+        <v>1016.399322134523</v>
       </c>
       <c r="Q23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="S23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="T23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="U23" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="V23" t="n">
-        <v>1114.10273254307</v>
+        <v>1114.102732543069</v>
       </c>
       <c r="W23" t="n">
-        <v>1026.291320364183</v>
+        <v>1026.291320364182</v>
       </c>
       <c r="X23" t="n">
-        <v>918.9846978491887</v>
+        <v>918.9846978491876</v>
       </c>
       <c r="Y23" t="n">
-        <v>800.166360388539</v>
+        <v>800.1663603885379</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>605.7912875357599</v>
+        <v>185.2308425327176</v>
       </c>
       <c r="C24" t="n">
-        <v>444.0876147767146</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D24" t="n">
-        <v>305.2489777669267</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E24" t="n">
-        <v>158.220967823798</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F24" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G24" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H24" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I24" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J24" t="n">
-        <v>23.52716977367232</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="K24" t="n">
-        <v>23.52716977367232</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="L24" t="n">
-        <v>314.6758957228673</v>
+        <v>114.4548830157154</v>
       </c>
       <c r="M24" t="n">
-        <v>605.8246216720622</v>
+        <v>394.8464152398755</v>
       </c>
       <c r="N24" t="n">
-        <v>885.2097627344211</v>
+        <v>685.9951411890702</v>
       </c>
       <c r="O24" t="n">
-        <v>1176.358488683616</v>
+        <v>685.9951411890702</v>
       </c>
       <c r="P24" t="n">
-        <v>1176.358488683616</v>
+        <v>977.1438671382648</v>
       </c>
       <c r="Q24" t="n">
-        <v>1176.358488683616</v>
+        <v>1176.358488683615</v>
       </c>
       <c r="R24" t="n">
-        <v>1176.358488683616</v>
+        <v>1169.18434335575</v>
       </c>
       <c r="S24" t="n">
-        <v>1176.358488683616</v>
+        <v>1022.537778844852</v>
       </c>
       <c r="T24" t="n">
-        <v>1155.649044789647</v>
+        <v>1022.537778844852</v>
       </c>
       <c r="U24" t="n">
-        <v>1155.649044789647</v>
+        <v>804.0647795570103</v>
       </c>
       <c r="V24" t="n">
-        <v>1155.649044789647</v>
+        <v>575.6691570053442</v>
       </c>
       <c r="W24" t="n">
-        <v>1155.649044789647</v>
+        <v>575.6691570053442</v>
       </c>
       <c r="X24" t="n">
-        <v>957.732056667442</v>
+        <v>377.7521688831388</v>
       </c>
       <c r="Y24" t="n">
-        <v>765.2107303170208</v>
+        <v>185.2308425327176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>484.9241730311469</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="C25" t="n">
-        <v>484.9241730311469</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="D25" t="n">
-        <v>484.9241730311469</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="E25" t="n">
-        <v>484.9241730311469</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="F25" t="n">
-        <v>484.9241730311469</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="G25" t="n">
-        <v>316.282137740489</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="H25" t="n">
-        <v>159.3786165923022</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="I25" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="J25" t="n">
-        <v>23.52716977367232</v>
+        <v>23.5271697736723</v>
       </c>
       <c r="K25" t="n">
-        <v>88.75452017135993</v>
+        <v>88.75452017135991</v>
       </c>
       <c r="L25" t="n">
         <v>229.8283602936762</v>
@@ -6166,31 +6166,31 @@
         <v>783.387009711667</v>
       </c>
       <c r="Q25" t="n">
-        <v>768.1043737152133</v>
+        <v>783.387009711667</v>
       </c>
       <c r="R25" t="n">
-        <v>631.0695940297755</v>
+        <v>783.387009711667</v>
       </c>
       <c r="S25" t="n">
-        <v>508.8086300971783</v>
+        <v>574.5170332575407</v>
       </c>
       <c r="T25" t="n">
-        <v>508.8086300971783</v>
+        <v>342.5246734414133</v>
       </c>
       <c r="U25" t="n">
-        <v>496.3570565502355</v>
+        <v>330.0730998944705</v>
       </c>
       <c r="V25" t="n">
-        <v>496.3570565502355</v>
+        <v>330.0730998944705</v>
       </c>
       <c r="W25" t="n">
-        <v>484.9241730311469</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="X25" t="n">
-        <v>484.9241730311469</v>
+        <v>245.5623285813952</v>
       </c>
       <c r="Y25" t="n">
-        <v>484.9241730311469</v>
+        <v>23.5271697736723</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.772001306255</v>
+        <v>1810.772001306257</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.853217023149</v>
+        <v>1530.853217023151</v>
       </c>
       <c r="D26" t="n">
-        <v>1260.04422663446</v>
+        <v>1260.044226634461</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2734811246532</v>
+        <v>967.2734811246546</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1372648189104</v>
+        <v>655.1372648189115</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6673669132297</v>
+        <v>341.6673669132308</v>
       </c>
       <c r="H26" t="n">
-        <v>117.2015707693438</v>
+        <v>117.2015707693439</v>
       </c>
       <c r="I26" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838825</v>
       </c>
       <c r="J26" t="n">
         <v>293.7520416570869</v>
       </c>
       <c r="K26" t="n">
-        <v>711.0637474076113</v>
+        <v>651.5479676290954</v>
       </c>
       <c r="L26" t="n">
-        <v>1254.690622475249</v>
+        <v>1195.174842696733</v>
       </c>
       <c r="M26" t="n">
-        <v>1854.462361416258</v>
+        <v>1794.946581637742</v>
       </c>
       <c r="N26" t="n">
-        <v>2441.050345910121</v>
+        <v>2281.549689737762</v>
       </c>
       <c r="O26" t="n">
-        <v>2888.761969742972</v>
+        <v>2788.777093349131</v>
       </c>
       <c r="P26" t="n">
-        <v>3304.16146136706</v>
+        <v>3204.176584973219</v>
       </c>
       <c r="Q26" t="n">
-        <v>3464.120627916152</v>
+        <v>3464.120627916155</v>
       </c>
       <c r="R26" t="n">
-        <v>3513.38743591941</v>
+        <v>3513.387435919412</v>
       </c>
       <c r="S26" t="n">
-        <v>3442.281501043469</v>
+        <v>3442.281501043471</v>
       </c>
       <c r="T26" t="n">
-        <v>3322.647701814402</v>
+        <v>3322.647701814404</v>
       </c>
       <c r="U26" t="n">
-        <v>3169.826869052967</v>
+        <v>3169.826869052969</v>
       </c>
       <c r="V26" t="n">
-        <v>2934.862569332995</v>
+        <v>2934.862569332997</v>
       </c>
       <c r="W26" t="n">
-        <v>2674.342613574683</v>
+        <v>2674.342613574684</v>
       </c>
       <c r="X26" t="n">
-        <v>2394.327447480263</v>
+        <v>2394.327447480265</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.800566440188</v>
+        <v>2102.800566440189</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>127.2449711146461</v>
       </c>
       <c r="I27" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838825</v>
       </c>
       <c r="J27" t="n">
-        <v>161.1954619604313</v>
+        <v>70.26774871838825</v>
       </c>
       <c r="K27" t="n">
-        <v>443.1120256400171</v>
+        <v>352.184312397974</v>
       </c>
       <c r="L27" t="n">
-        <v>879.4271125317763</v>
+        <v>788.4993992897332</v>
       </c>
       <c r="M27" t="n">
-        <v>1446.722754179753</v>
+        <v>1355.79504093771</v>
       </c>
       <c r="N27" t="n">
-        <v>1513.148446029986</v>
+        <v>1951.500213186512</v>
       </c>
       <c r="O27" t="n">
         <v>1982.594066618682</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7374632107164</v>
+        <v>444.7374632107166</v>
       </c>
       <c r="C28" t="n">
-        <v>377.1364680564835</v>
+        <v>377.1364680564836</v>
       </c>
       <c r="D28" t="n">
-        <v>326.079549268333</v>
+        <v>326.0795492683331</v>
       </c>
       <c r="E28" t="n">
-        <v>276.0855094137386</v>
+        <v>276.0855094137387</v>
       </c>
       <c r="F28" t="n">
         <v>225.6198288236025</v>
@@ -6379,34 +6379,34 @@
         <v>104.1042211529314</v>
       </c>
       <c r="I28" t="n">
-        <v>70.26774871838821</v>
+        <v>70.26774871838825</v>
       </c>
       <c r="J28" t="n">
-        <v>130.6341355862127</v>
+        <v>130.6341355862126</v>
       </c>
       <c r="K28" t="n">
-        <v>295.8463623777438</v>
+        <v>295.8463623777437</v>
       </c>
       <c r="L28" t="n">
-        <v>536.9050788939035</v>
+        <v>536.9050788939032</v>
       </c>
       <c r="M28" t="n">
-        <v>797.5499867382314</v>
+        <v>797.5499867382312</v>
       </c>
       <c r="N28" t="n">
         <v>1057.609215596753</v>
       </c>
       <c r="O28" t="n">
-        <v>1294.53011195495</v>
+        <v>1294.530111954951</v>
       </c>
       <c r="P28" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887269</v>
       </c>
       <c r="Q28" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.409598740988</v>
       </c>
       <c r="R28" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439637</v>
       </c>
       <c r="S28" t="n">
         <v>1433.534791369597</v>
@@ -6418,16 +6418,16 @@
         <v>1118.397288811188</v>
       </c>
       <c r="V28" t="n">
-        <v>959.6769587536971</v>
+        <v>959.6769587536976</v>
       </c>
       <c r="W28" t="n">
-        <v>775.5355316551831</v>
+        <v>775.5355316551834</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2980419346457</v>
+        <v>646.2980419346459</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.2778575110095</v>
+        <v>526.2778575110096</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.772001306256</v>
+        <v>1810.772001306257</v>
       </c>
       <c r="C29" t="n">
         <v>1530.853217023151</v>
       </c>
       <c r="D29" t="n">
-        <v>1260.044226634461</v>
+        <v>1260.044226634462</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2734811246542</v>
+        <v>967.2734811246552</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1372648189113</v>
+        <v>655.1372648189122</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6673669132306</v>
+        <v>341.6673669132315</v>
       </c>
       <c r="H29" t="n">
         <v>117.2015707693439</v>
@@ -6467,13 +6467,13 @@
         <v>711.0637474076113</v>
       </c>
       <c r="L29" t="n">
-        <v>1254.690622475249</v>
+        <v>1154.705746081405</v>
       </c>
       <c r="M29" t="n">
         <v>1754.477485022415</v>
       </c>
       <c r="N29" t="n">
-        <v>2281.549689737762</v>
+        <v>2341.065469516278</v>
       </c>
       <c r="O29" t="n">
         <v>2788.777093349131</v>
@@ -6488,7 +6488,7 @@
         <v>3513.387435919412</v>
       </c>
       <c r="S29" t="n">
-        <v>3442.281501043471</v>
+        <v>3442.28150104347</v>
       </c>
       <c r="T29" t="n">
         <v>3322.647701814404</v>
@@ -6543,19 +6543,19 @@
         <v>161.1954619604314</v>
       </c>
       <c r="K30" t="n">
-        <v>443.1120256400171</v>
+        <v>161.1954619604314</v>
       </c>
       <c r="L30" t="n">
-        <v>714.2400115255984</v>
+        <v>350.1476321332076</v>
       </c>
       <c r="M30" t="n">
-        <v>1281.535653173576</v>
+        <v>917.4432737811848</v>
       </c>
       <c r="N30" t="n">
-        <v>1877.240825422377</v>
+        <v>1513.148446029986</v>
       </c>
       <c r="O30" t="n">
-        <v>2346.686446011073</v>
+        <v>1982.594066618682</v>
       </c>
       <c r="P30" t="n">
         <v>2346.686446011073</v>
@@ -6607,13 +6607,13 @@
         <v>276.0855094137387</v>
       </c>
       <c r="F31" t="n">
-        <v>225.6198288236025</v>
+        <v>225.6198288236026</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170315</v>
       </c>
       <c r="H31" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529315</v>
       </c>
       <c r="I31" t="n">
         <v>70.26774871838825</v>
@@ -6628,7 +6628,7 @@
         <v>536.9050788939032</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5499867382312</v>
+        <v>797.5499867382314</v>
       </c>
       <c r="N31" t="n">
         <v>1057.609215596753</v>
@@ -6637,13 +6637,13 @@
         <v>1294.530111954951</v>
       </c>
       <c r="P31" t="n">
-        <v>1490.403233887269</v>
+        <v>1490.403233887268</v>
       </c>
       <c r="Q31" t="n">
         <v>1575.409598740988</v>
       </c>
       <c r="R31" t="n">
-        <v>1540.389793439637</v>
+        <v>1540.389793439636</v>
       </c>
       <c r="S31" t="n">
         <v>1433.534791369597</v>
@@ -6655,13 +6655,13 @@
         <v>1118.397288811188</v>
       </c>
       <c r="V31" t="n">
-        <v>959.6769587536976</v>
+        <v>959.6769587536974</v>
       </c>
       <c r="W31" t="n">
-        <v>775.5355316551834</v>
+        <v>775.5355316551833</v>
       </c>
       <c r="X31" t="n">
-        <v>646.2980419346459</v>
+        <v>646.2980419346458</v>
       </c>
       <c r="Y31" t="n">
         <v>526.2778575110096</v>
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1810.772001306258</v>
+        <v>1810.772001306256</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.853217023152</v>
+        <v>1530.85321702315</v>
       </c>
       <c r="D32" t="n">
-        <v>1260.044226634462</v>
+        <v>1260.04422663446</v>
       </c>
       <c r="E32" t="n">
-        <v>967.2734811246555</v>
+        <v>967.2734811246538</v>
       </c>
       <c r="F32" t="n">
-        <v>655.1372648189124</v>
+        <v>655.1372648189108</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6673669132305</v>
+        <v>341.6673669132306</v>
       </c>
       <c r="H32" t="n">
-        <v>117.2015707693438</v>
+        <v>117.201570769344</v>
       </c>
       <c r="I32" t="n">
         <v>70.26774871838825</v>
       </c>
       <c r="J32" t="n">
-        <v>293.7520416570869</v>
+        <v>293.7520416570868</v>
       </c>
       <c r="K32" t="n">
-        <v>711.0637474076113</v>
+        <v>711.0637474076111</v>
       </c>
       <c r="L32" t="n">
-        <v>1254.690622475249</v>
+        <v>1154.705746081405</v>
       </c>
       <c r="M32" t="n">
-        <v>1794.946581637742</v>
+        <v>1754.477485022415</v>
       </c>
       <c r="N32" t="n">
-        <v>2281.549689737762</v>
+        <v>2341.065469516277</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.777093349131</v>
+        <v>2848.292873127646</v>
       </c>
       <c r="P32" t="n">
-        <v>3204.176584973219</v>
+        <v>3263.692364751735</v>
       </c>
       <c r="Q32" t="n">
         <v>3464.120627916155</v>
@@ -6734,16 +6734,16 @@
         <v>3169.826869052969</v>
       </c>
       <c r="V32" t="n">
-        <v>2934.862569332997</v>
+        <v>2934.862569332996</v>
       </c>
       <c r="W32" t="n">
         <v>2674.342613574684</v>
       </c>
       <c r="X32" t="n">
-        <v>2394.327447480265</v>
+        <v>2394.327447480264</v>
       </c>
       <c r="Y32" t="n">
-        <v>2102.80056644019</v>
+        <v>2102.800566440189</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>70.26774871838825</v>
       </c>
       <c r="J33" t="n">
-        <v>70.26774871838825</v>
+        <v>161.1954619604314</v>
       </c>
       <c r="K33" t="n">
-        <v>113.0471667867984</v>
+        <v>443.1120256400171</v>
       </c>
       <c r="L33" t="n">
-        <v>549.3622536785576</v>
+        <v>879.4271125317764</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.657895326535</v>
+        <v>917.4432737811848</v>
       </c>
       <c r="N33" t="n">
-        <v>1712.363067575336</v>
+        <v>1513.148446029986</v>
       </c>
       <c r="O33" t="n">
-        <v>2181.808688164032</v>
+        <v>1982.594066618682</v>
       </c>
       <c r="P33" t="n">
-        <v>2545.901067556423</v>
+        <v>2346.686446011073</v>
       </c>
       <c r="Q33" t="n">
         <v>2545.901067556423</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.7374632107163</v>
+        <v>444.7374632107174</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1364680564834</v>
+        <v>377.1364680564843</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0795492683329</v>
+        <v>326.0795492683337</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0855094137386</v>
+        <v>276.0855094137391</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6198288236025</v>
+        <v>225.6198288236029</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9927679170314</v>
+        <v>158.9927679170317</v>
       </c>
       <c r="H34" t="n">
-        <v>104.1042211529314</v>
+        <v>104.1042211529315</v>
       </c>
       <c r="I34" t="n">
         <v>70.26774871838825</v>
       </c>
       <c r="J34" t="n">
-        <v>130.6341355862129</v>
+        <v>130.6341355862125</v>
       </c>
       <c r="K34" t="n">
-        <v>295.8463623777441</v>
+        <v>295.8463623777434</v>
       </c>
       <c r="L34" t="n">
-        <v>536.9050788939037</v>
+        <v>536.905078893903</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5499867382315</v>
+        <v>797.5499867382307</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.609215596753</v>
+        <v>1057.609215596752</v>
       </c>
       <c r="O34" t="n">
-        <v>1294.530111954951</v>
+        <v>1294.530111954949</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.403233887268</v>
+        <v>1490.403233887267</v>
       </c>
       <c r="Q34" t="n">
-        <v>1575.409598740987</v>
+        <v>1575.40959874099</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.389793439636</v>
+        <v>1540.389793439639</v>
       </c>
       <c r="S34" t="n">
-        <v>1433.534791369597</v>
+        <v>1433.534791369599</v>
       </c>
       <c r="T34" t="n">
-        <v>1303.557405937556</v>
+        <v>1303.557405937558</v>
       </c>
       <c r="U34" t="n">
-        <v>1118.397288811188</v>
+        <v>1118.39728881119</v>
       </c>
       <c r="V34" t="n">
-        <v>959.6769587536974</v>
+        <v>959.6769587536987</v>
       </c>
       <c r="W34" t="n">
-        <v>775.5355316551833</v>
+        <v>775.5355316551844</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2980419346455</v>
+        <v>646.2980419346468</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.2778575110094</v>
+        <v>526.2778575110106</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.714903950991</v>
+        <v>1262.71490395099</v>
       </c>
       <c r="C35" t="n">
-        <v>1062.395470589658</v>
+        <v>1062.395470589657</v>
       </c>
       <c r="D35" t="n">
-        <v>871.1858311227411</v>
+        <v>871.1858311227406</v>
       </c>
       <c r="E35" t="n">
-        <v>658.0144365347074</v>
+        <v>658.0144365347071</v>
       </c>
       <c r="F35" t="n">
-        <v>425.4775711507373</v>
+        <v>425.4775711507372</v>
       </c>
       <c r="G35" t="n">
-        <v>191.6070241668298</v>
+        <v>191.6070241668296</v>
       </c>
       <c r="H35" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="I35" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="J35" t="n">
-        <v>46.74057894471591</v>
+        <v>170.2399954895711</v>
       </c>
       <c r="K35" t="n">
-        <v>364.067408301397</v>
+        <v>487.5668248462522</v>
       </c>
       <c r="L35" t="n">
-        <v>807.709406975191</v>
+        <v>931.2088235200462</v>
       </c>
       <c r="M35" t="n">
-        <v>1307.496269522357</v>
+        <v>967.8095301389112</v>
       </c>
       <c r="N35" t="n">
-        <v>1794.099377622376</v>
+        <v>1454.41263823893</v>
       </c>
       <c r="O35" t="n">
-        <v>2201.341904839902</v>
+        <v>1861.655165456456</v>
       </c>
       <c r="P35" t="n">
-        <v>2337.028947235795</v>
+        <v>2177.069780686702</v>
       </c>
       <c r="Q35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="R35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="S35" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="T35" t="n">
-        <v>2296.994498928501</v>
+        <v>2296.9944989285</v>
       </c>
       <c r="U35" t="n">
-        <v>2223.773017088839</v>
+        <v>2223.773017088837</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.40806829064</v>
+        <v>2068.408068290638</v>
       </c>
       <c r="W35" t="n">
-        <v>1887.4874634541</v>
+        <v>1887.487463454099</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.071648281453</v>
+        <v>1687.071648281451</v>
       </c>
       <c r="Y35" t="n">
-        <v>1475.144118163151</v>
+        <v>1475.144118163149</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>725.7728415427805</v>
+        <v>725.7728415427787</v>
       </c>
       <c r="C36" t="n">
-        <v>564.0691687837352</v>
+        <v>564.0691687837334</v>
       </c>
       <c r="D36" t="n">
-        <v>425.2305317739473</v>
+        <v>425.2305317739455</v>
       </c>
       <c r="E36" t="n">
-        <v>278.2025218308185</v>
+        <v>278.2025218308167</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5087237806929</v>
+        <v>143.508723780691</v>
       </c>
       <c r="G36" t="n">
-        <v>143.5087237806929</v>
+        <v>143.508723780691</v>
       </c>
       <c r="H36" t="n">
-        <v>46.7700954402477</v>
+        <v>46.77009544024588</v>
       </c>
       <c r="I36" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="J36" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="K36" t="n">
-        <v>46.74057894471591</v>
+        <v>328.6571426243016</v>
       </c>
       <c r="L36" t="n">
-        <v>483.0556658364751</v>
+        <v>328.6571426243016</v>
       </c>
       <c r="M36" t="n">
-        <v>1050.351307484452</v>
+        <v>895.9527842722788</v>
       </c>
       <c r="N36" t="n">
-        <v>1628.765971925312</v>
+        <v>1474.367448713138</v>
       </c>
       <c r="O36" t="n">
-        <v>2098.211592514007</v>
+        <v>1943.813069301834</v>
       </c>
       <c r="P36" t="n">
-        <v>2337.028947235795</v>
+        <v>2137.814325690444</v>
       </c>
       <c r="Q36" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235794</v>
       </c>
       <c r="R36" t="n">
-        <v>2297.811566306037</v>
+        <v>2297.811566306035</v>
       </c>
       <c r="S36" t="n">
-        <v>2151.165001795139</v>
+        <v>2151.165001795137</v>
       </c>
       <c r="T36" t="n">
-        <v>1963.815089402866</v>
+        <v>1963.815089402864</v>
       </c>
       <c r="U36" t="n">
-        <v>1745.342090115024</v>
+        <v>1745.342090115022</v>
       </c>
       <c r="V36" t="n">
-        <v>1516.946467563358</v>
+        <v>1516.946467563356</v>
       </c>
       <c r="W36" t="n">
-        <v>1275.630598796668</v>
+        <v>1275.630598796666</v>
       </c>
       <c r="X36" t="n">
-        <v>1077.713610674463</v>
+        <v>1077.713610674461</v>
       </c>
       <c r="Y36" t="n">
-        <v>885.1922843240415</v>
+        <v>885.1922843240396</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.1285707221132</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1285707221132</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="D37" t="n">
-        <v>166.1285707221132</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="E37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="F37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="G37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="H37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="I37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="J37" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471587</v>
       </c>
       <c r="K37" t="n">
         <v>111.9679293424035</v>
@@ -7120,25 +7120,25 @@
         <v>806.6004188827106</v>
       </c>
       <c r="S37" t="n">
-        <v>779.3447677344438</v>
+        <v>779.344767734444</v>
       </c>
       <c r="T37" t="n">
-        <v>728.966733224176</v>
+        <v>728.9667332241762</v>
       </c>
       <c r="U37" t="n">
-        <v>623.4059670195804</v>
+        <v>623.4059670195808</v>
       </c>
       <c r="V37" t="n">
-        <v>362.670662578003</v>
+        <v>362.6706625780034</v>
       </c>
       <c r="W37" t="n">
-        <v>258.1285864012617</v>
+        <v>258.1285864012622</v>
       </c>
       <c r="X37" t="n">
-        <v>208.4904476024969</v>
+        <v>208.4904476024976</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.0696141006335</v>
+        <v>168.0696141006343</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1062.395470589659</v>
       </c>
       <c r="D38" t="n">
-        <v>871.1858311227422</v>
+        <v>871.1858311227423</v>
       </c>
       <c r="E38" t="n">
         <v>658.0144365347087</v>
@@ -7163,61 +7163,61 @@
         <v>425.4775711507386</v>
       </c>
       <c r="G38" t="n">
-        <v>191.6070241668297</v>
+        <v>191.6070241668298</v>
       </c>
       <c r="H38" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="I38" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="J38" t="n">
         <v>170.2399954895712</v>
       </c>
       <c r="K38" t="n">
-        <v>487.5668248462522</v>
+        <v>184.3398354670467</v>
       </c>
       <c r="L38" t="n">
-        <v>931.2088235200462</v>
+        <v>627.9818341408406</v>
       </c>
       <c r="M38" t="n">
-        <v>1430.995686067212</v>
+        <v>1127.768696688007</v>
       </c>
       <c r="N38" t="n">
-        <v>1917.598794167232</v>
+        <v>1614.371804788026</v>
       </c>
       <c r="O38" t="n">
-        <v>2324.841321384758</v>
+        <v>2021.614332005552</v>
       </c>
       <c r="P38" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235797</v>
       </c>
       <c r="Q38" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235797</v>
       </c>
       <c r="R38" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235797</v>
       </c>
       <c r="S38" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235797</v>
       </c>
       <c r="T38" t="n">
-        <v>2296.994498928502</v>
+        <v>2296.994498928503</v>
       </c>
       <c r="U38" t="n">
-        <v>2223.773017088839</v>
+        <v>2223.77301708884</v>
       </c>
       <c r="V38" t="n">
-        <v>2068.40806829064</v>
+        <v>2068.408068290641</v>
       </c>
       <c r="W38" t="n">
-        <v>1887.487463454101</v>
+        <v>1887.487463454102</v>
       </c>
       <c r="X38" t="n">
         <v>1687.071648281454</v>
       </c>
       <c r="Y38" t="n">
-        <v>1475.144118163151</v>
+        <v>1475.144118163152</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>854.1405696934777</v>
+        <v>725.7728415427823</v>
       </c>
       <c r="C39" t="n">
-        <v>692.4368969344324</v>
+        <v>564.069168783737</v>
       </c>
       <c r="D39" t="n">
-        <v>553.5982599246445</v>
+        <v>425.2305317739491</v>
       </c>
       <c r="E39" t="n">
-        <v>406.5702499815156</v>
+        <v>278.2025218308203</v>
       </c>
       <c r="F39" t="n">
-        <v>271.87645193139</v>
+        <v>143.5087237806947</v>
       </c>
       <c r="G39" t="n">
-        <v>143.4792072851611</v>
+        <v>143.5087237806947</v>
       </c>
       <c r="H39" t="n">
-        <v>46.74057894471591</v>
+        <v>46.77009544024952</v>
       </c>
       <c r="I39" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="J39" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="K39" t="n">
-        <v>328.6571426243016</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="L39" t="n">
-        <v>357.780641165872</v>
+        <v>158.5660196205234</v>
       </c>
       <c r="M39" t="n">
-        <v>925.0762828138492</v>
+        <v>725.8616612685006</v>
       </c>
       <c r="N39" t="n">
-        <v>1503.490947254709</v>
+        <v>1304.27632570936</v>
       </c>
       <c r="O39" t="n">
-        <v>1972.936567843404</v>
+        <v>1773.721946298056</v>
       </c>
       <c r="P39" t="n">
-        <v>2337.028947235795</v>
+        <v>2137.814325690447</v>
       </c>
       <c r="Q39" t="n">
-        <v>2337.028947235795</v>
+        <v>2337.028947235797</v>
       </c>
       <c r="R39" t="n">
-        <v>2297.811566306037</v>
+        <v>2297.811566306038</v>
       </c>
       <c r="S39" t="n">
-        <v>2151.165001795139</v>
+        <v>2151.165001795141</v>
       </c>
       <c r="T39" t="n">
-        <v>1963.815089402866</v>
+        <v>1963.815089402868</v>
       </c>
       <c r="U39" t="n">
-        <v>1873.709818265721</v>
+        <v>1745.342090115026</v>
       </c>
       <c r="V39" t="n">
-        <v>1645.314195714055</v>
+        <v>1516.94646756336</v>
       </c>
       <c r="W39" t="n">
-        <v>1403.998326947365</v>
+        <v>1275.63059879667</v>
       </c>
       <c r="X39" t="n">
-        <v>1206.08133882516</v>
+        <v>1077.713610674464</v>
       </c>
       <c r="Y39" t="n">
-        <v>1013.560012474739</v>
+        <v>885.1922843240433</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="C40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="D40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="E40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="F40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="G40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="H40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="I40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="J40" t="n">
-        <v>46.74057894471591</v>
+        <v>46.74057894471594</v>
       </c>
       <c r="K40" t="n">
-        <v>111.9679293424035</v>
+        <v>111.9679293424036</v>
       </c>
       <c r="L40" t="n">
-        <v>253.0417694647197</v>
+        <v>253.0417694647198</v>
       </c>
       <c r="M40" t="n">
         <v>413.7018009152042</v>
@@ -7357,25 +7357,25 @@
         <v>806.6004188827106</v>
       </c>
       <c r="S40" t="n">
-        <v>779.344767734444</v>
+        <v>659.9567759570465</v>
       </c>
       <c r="T40" t="n">
-        <v>728.9667332241762</v>
+        <v>609.5787414467786</v>
       </c>
       <c r="U40" t="n">
-        <v>441.7916417137212</v>
+        <v>504.0179752421831</v>
       </c>
       <c r="V40" t="n">
-        <v>362.6706625780034</v>
+        <v>243.2826708006056</v>
       </c>
       <c r="W40" t="n">
-        <v>258.1285864012622</v>
+        <v>138.7405946238643</v>
       </c>
       <c r="X40" t="n">
-        <v>89.10245582509938</v>
+        <v>89.1024558250996</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.68162232323611</v>
+        <v>48.68162232323623</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1265.29850117436</v>
+        <v>1265.298501174361</v>
       </c>
       <c r="C41" t="n">
-        <v>1064.566702132424</v>
+        <v>1064.566702132425</v>
       </c>
       <c r="D41" t="n">
-        <v>872.9446969849047</v>
+        <v>872.9446969849048</v>
       </c>
       <c r="E41" t="n">
         <v>659.3609367162683</v>
@@ -7403,22 +7403,22 @@
         <v>192.1287929871844</v>
       </c>
       <c r="H41" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I41" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J41" t="n">
-        <v>46.84998208446768</v>
+        <v>170.3493986293229</v>
       </c>
       <c r="K41" t="n">
-        <v>364.1768114411487</v>
+        <v>487.676227986004</v>
       </c>
       <c r="L41" t="n">
-        <v>807.8188101149427</v>
+        <v>931.318226659798</v>
       </c>
       <c r="M41" t="n">
-        <v>973.2796871265018</v>
+        <v>1431.105089206964</v>
       </c>
       <c r="N41" t="n">
         <v>1459.882795226521</v>
@@ -7427,25 +7427,25 @@
         <v>1867.125322444047</v>
       </c>
       <c r="P41" t="n">
-        <v>2182.539937674292</v>
+        <v>2182.539937674293</v>
       </c>
       <c r="Q41" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R41" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="S41" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="T41" t="n">
         <v>2302.052290235488</v>
       </c>
       <c r="U41" t="n">
-        <v>2228.418442715222</v>
+        <v>2228.418442715223</v>
       </c>
       <c r="V41" t="n">
-        <v>2072.64112823642</v>
+        <v>2072.641128236421</v>
       </c>
       <c r="W41" t="n">
         <v>1891.308157719278</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>782.8299505832583</v>
+        <v>731.2429985303697</v>
       </c>
       <c r="C42" t="n">
-        <v>621.126277824213</v>
+        <v>569.5393257713245</v>
       </c>
       <c r="D42" t="n">
-        <v>482.2876408144252</v>
+        <v>430.7006887615365</v>
       </c>
       <c r="E42" t="n">
-        <v>335.2596308712964</v>
+        <v>430.7006887615365</v>
       </c>
       <c r="F42" t="n">
-        <v>200.5658328211707</v>
+        <v>296.0068907114108</v>
       </c>
       <c r="G42" t="n">
         <v>200.5658328211707</v>
@@ -7485,55 +7485,55 @@
         <v>103.8272044807256</v>
       </c>
       <c r="I42" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J42" t="n">
-        <v>137.7776953265108</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="K42" t="n">
-        <v>419.6942590060966</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="L42" t="n">
-        <v>856.0093458978558</v>
+        <v>483.1650689762269</v>
       </c>
       <c r="M42" t="n">
-        <v>1423.304987545833</v>
+        <v>1050.460710624204</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.192103285643</v>
+        <v>1309.746482696948</v>
       </c>
       <c r="O42" t="n">
-        <v>1779.192103285643</v>
+        <v>1779.192103285644</v>
       </c>
       <c r="P42" t="n">
-        <v>2143.284482678034</v>
+        <v>2143.284482678035</v>
       </c>
       <c r="Q42" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R42" t="n">
-        <v>2303.281723293625</v>
+        <v>2303.281723293626</v>
       </c>
       <c r="S42" t="n">
-        <v>2208.222110835617</v>
+        <v>2156.635158782728</v>
       </c>
       <c r="T42" t="n">
-        <v>2020.872198443343</v>
+        <v>1969.285246390455</v>
       </c>
       <c r="U42" t="n">
-        <v>1802.399199155501</v>
+        <v>1750.812247102613</v>
       </c>
       <c r="V42" t="n">
-        <v>1574.003576603835</v>
+        <v>1522.416624550947</v>
       </c>
       <c r="W42" t="n">
-        <v>1332.687707837146</v>
+        <v>1281.100755784257</v>
       </c>
       <c r="X42" t="n">
-        <v>1134.77071971494</v>
+        <v>1083.183767662052</v>
       </c>
       <c r="Y42" t="n">
-        <v>942.2493933645192</v>
+        <v>890.6624413116307</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="C43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="D43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="E43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="F43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="G43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J43" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="K43" t="n">
         <v>112.0773324821553</v>
@@ -7588,31 +7588,31 @@
         <v>806.7098220224624</v>
       </c>
       <c r="Q43" t="n">
-        <v>806.7098220224624</v>
+        <v>791.4271860260087</v>
       </c>
       <c r="R43" t="n">
-        <v>669.6750423370245</v>
+        <v>791.4271860260087</v>
       </c>
       <c r="S43" t="n">
-        <v>481.3384135551585</v>
+        <v>662.5403731804154</v>
       </c>
       <c r="T43" t="n">
-        <v>430.5480133642878</v>
+        <v>611.7499729895446</v>
       </c>
       <c r="U43" t="n">
-        <v>324.5748814790894</v>
+        <v>324.5748814790896</v>
       </c>
       <c r="V43" t="n">
-        <v>245.0415366627687</v>
+        <v>245.0415366627689</v>
       </c>
       <c r="W43" t="n">
-        <v>140.0870948054246</v>
+        <v>140.0870948054247</v>
       </c>
       <c r="X43" t="n">
-        <v>90.03659032605702</v>
+        <v>90.03659032605709</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.20339114359081</v>
+        <v>49.20339114359085</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7628,55 @@
         <v>1064.566702132424</v>
       </c>
       <c r="D44" t="n">
-        <v>872.9446969849048</v>
+        <v>872.9446969849046</v>
       </c>
       <c r="E44" t="n">
         <v>659.3609367162683</v>
       </c>
       <c r="F44" t="n">
-        <v>426.4117056516953</v>
+        <v>426.4117056516952</v>
       </c>
       <c r="G44" t="n">
         <v>192.1287929871844</v>
       </c>
       <c r="H44" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I44" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J44" t="n">
-        <v>46.84998208446768</v>
+        <v>170.3493986293229</v>
       </c>
       <c r="K44" t="n">
-        <v>46.84998208446768</v>
+        <v>487.676227986004</v>
       </c>
       <c r="L44" t="n">
-        <v>490.4919807582617</v>
+        <v>931.318226659798</v>
       </c>
       <c r="M44" t="n">
-        <v>990.2788433054279</v>
+        <v>1431.105089206964</v>
       </c>
       <c r="N44" t="n">
-        <v>1476.881951405447</v>
+        <v>1917.708197306983</v>
       </c>
       <c r="O44" t="n">
-        <v>1884.124478622973</v>
+        <v>2182.539937674293</v>
       </c>
       <c r="P44" t="n">
-        <v>2182.539937674292</v>
+        <v>2182.539937674293</v>
       </c>
       <c r="Q44" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R44" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="S44" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="T44" t="n">
-        <v>2302.052290235487</v>
+        <v>2302.052290235488</v>
       </c>
       <c r="U44" t="n">
         <v>2228.418442715222</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>911.2271952294872</v>
+        <v>731.2429985303697</v>
       </c>
       <c r="C45" t="n">
-        <v>749.5235224704419</v>
+        <v>569.5393257713245</v>
       </c>
       <c r="D45" t="n">
-        <v>610.684885460654</v>
+        <v>430.7006887615365</v>
       </c>
       <c r="E45" t="n">
-        <v>463.6568755175252</v>
+        <v>283.6726788184077</v>
       </c>
       <c r="F45" t="n">
-        <v>328.9630774673996</v>
+        <v>232.2244491269544</v>
       </c>
       <c r="G45" t="n">
-        <v>200.5658328211707</v>
+        <v>103.8272044807256</v>
       </c>
       <c r="H45" t="n">
         <v>103.8272044807256</v>
       </c>
       <c r="I45" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J45" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="K45" t="n">
         <v>328.7665457640534</v>
       </c>
       <c r="L45" t="n">
-        <v>742.4508410489702</v>
+        <v>725.9893136914241</v>
       </c>
       <c r="M45" t="n">
-        <v>1309.746482696947</v>
+        <v>1293.284955339401</v>
       </c>
       <c r="N45" t="n">
-        <v>1309.746482696947</v>
+        <v>1873.053483634689</v>
       </c>
       <c r="O45" t="n">
-        <v>1779.192103285643</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="P45" t="n">
-        <v>2143.284482678034</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="Q45" t="n">
-        <v>2342.499104223384</v>
+        <v>2342.499104223385</v>
       </c>
       <c r="R45" t="n">
-        <v>2342.499104223384</v>
+        <v>2303.281723293626</v>
       </c>
       <c r="S45" t="n">
-        <v>2195.852539712486</v>
+        <v>2156.635158782728</v>
       </c>
       <c r="T45" t="n">
-        <v>2149.269443089573</v>
+        <v>1969.285246390455</v>
       </c>
       <c r="U45" t="n">
-        <v>1930.79644380173</v>
+        <v>1750.812247102613</v>
       </c>
       <c r="V45" t="n">
-        <v>1702.400821250064</v>
+        <v>1522.416624550947</v>
       </c>
       <c r="W45" t="n">
-        <v>1461.084952483375</v>
+        <v>1281.100755784257</v>
       </c>
       <c r="X45" t="n">
-        <v>1263.167964361169</v>
+        <v>1083.183767662052</v>
       </c>
       <c r="Y45" t="n">
-        <v>1070.646638010748</v>
+        <v>890.6624413116307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="C46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="D46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="E46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="F46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="G46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="H46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="I46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="J46" t="n">
-        <v>46.84998208446768</v>
+        <v>46.84998208446769</v>
       </c>
       <c r="K46" t="n">
         <v>112.0773324821553</v>
@@ -7831,25 +7831,25 @@
         <v>806.7098220224624</v>
       </c>
       <c r="S46" t="n">
-        <v>779.0418051935928</v>
+        <v>597.839845568336</v>
       </c>
       <c r="T46" t="n">
-        <v>728.2514050027221</v>
+        <v>430.5480133642881</v>
       </c>
       <c r="U46" t="n">
-        <v>622.2782731175237</v>
+        <v>324.5748814790896</v>
       </c>
       <c r="V46" t="n">
-        <v>542.744928301203</v>
+        <v>245.0415366627689</v>
       </c>
       <c r="W46" t="n">
-        <v>256.5885268186021</v>
+        <v>140.0870948054247</v>
       </c>
       <c r="X46" t="n">
-        <v>90.03659032605702</v>
+        <v>90.03659032605709</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.20339114359081</v>
+        <v>49.20339114359085</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>95.07871432485223</v>
       </c>
       <c r="K11" t="n">
-        <v>100.8568854771797</v>
+        <v>221.4891829653285</v>
       </c>
       <c r="L11" t="n">
         <v>94.83634793195527</v>
       </c>
       <c r="M11" t="n">
-        <v>200.1646763347231</v>
+        <v>373.6220010174796</v>
       </c>
       <c r="N11" t="n">
-        <v>371.122332896363</v>
+        <v>371.1223328963636</v>
       </c>
       <c r="O11" t="n">
-        <v>377.7737697139619</v>
+        <v>377.7737697139626</v>
       </c>
       <c r="P11" t="n">
-        <v>393.8273213491394</v>
+        <v>99.73769917823537</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.07217095056873</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>59.04060237939689</v>
       </c>
       <c r="L12" t="n">
-        <v>41.3701389028209</v>
+        <v>335.4597610737255</v>
       </c>
       <c r="M12" t="n">
-        <v>326.4803043913815</v>
+        <v>326.4803043913822</v>
       </c>
       <c r="N12" t="n">
-        <v>315.5123126066132</v>
+        <v>21.42269043570921</v>
       </c>
       <c r="O12" t="n">
-        <v>331.9231416865151</v>
+        <v>321.0572894390069</v>
       </c>
       <c r="P12" t="n">
-        <v>328.438732231886</v>
+        <v>46.23151903758407</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.87358360675522</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,22 +8927,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>394.9465076480838</v>
+        <v>394.9465076480835</v>
       </c>
       <c r="L14" t="n">
-        <v>252.2966757274135</v>
+        <v>94.83634793195527</v>
       </c>
       <c r="M14" t="n">
-        <v>373.622001017479</v>
+        <v>79.53237884657494</v>
       </c>
       <c r="N14" t="n">
-        <v>371.122332896363</v>
+        <v>371.1223328963627</v>
       </c>
       <c r="O14" t="n">
-        <v>83.68414754305792</v>
+        <v>241.1444753385159</v>
       </c>
       <c r="P14" t="n">
-        <v>99.73769917823537</v>
+        <v>393.8273213491391</v>
       </c>
       <c r="Q14" t="n">
         <v>114.4345721517223</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>72.07217095056873</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>59.04060237939689</v>
       </c>
       <c r="L15" t="n">
-        <v>335.4597610737249</v>
+        <v>41.3701389028209</v>
       </c>
       <c r="M15" t="n">
-        <v>314.5978954147794</v>
+        <v>326.4803043913813</v>
       </c>
       <c r="N15" t="n">
-        <v>315.5123126066132</v>
+        <v>304.6464603591032</v>
       </c>
       <c r="O15" t="n">
-        <v>331.9231416865151</v>
+        <v>37.8335195156111</v>
       </c>
       <c r="P15" t="n">
-        <v>46.23151903758407</v>
+        <v>340.3211412084878</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.87358360675522</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,25 +9164,25 @@
         <v>95.07871432485223</v>
       </c>
       <c r="K17" t="n">
-        <v>394.9465076480838</v>
+        <v>100.8568854771797</v>
       </c>
       <c r="L17" t="n">
-        <v>388.9259701028593</v>
+        <v>94.83634793195527</v>
       </c>
       <c r="M17" t="n">
-        <v>79.53237884657494</v>
+        <v>373.6220010174787</v>
       </c>
       <c r="N17" t="n">
-        <v>77.03271072545897</v>
+        <v>371.1223328963627</v>
       </c>
       <c r="O17" t="n">
-        <v>365.8913607373598</v>
+        <v>204.3164450312058</v>
       </c>
       <c r="P17" t="n">
-        <v>393.8273213491394</v>
+        <v>393.8273213491391</v>
       </c>
       <c r="Q17" t="n">
-        <v>114.4345721517223</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9246,22 +9246,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>335.4597610737249</v>
+        <v>131.6758780812224</v>
       </c>
       <c r="M18" t="n">
         <v>32.39068222047753</v>
       </c>
       <c r="N18" t="n">
-        <v>312.9553200639599</v>
+        <v>21.42269043570921</v>
       </c>
       <c r="O18" t="n">
-        <v>331.9231416865151</v>
+        <v>331.9231416865148</v>
       </c>
       <c r="P18" t="n">
-        <v>46.23151903758407</v>
+        <v>340.3211412084878</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.87358360675522</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07871432485223</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>100.8568854771797</v>
+        <v>394.9465076480835</v>
       </c>
       <c r="L20" t="n">
-        <v>94.83634793195527</v>
+        <v>388.925970102859</v>
       </c>
       <c r="M20" t="n">
-        <v>200.1646763347231</v>
+        <v>373.6220010174787</v>
       </c>
       <c r="N20" t="n">
-        <v>371.122332896363</v>
+        <v>77.03271072545897</v>
       </c>
       <c r="O20" t="n">
-        <v>377.7737697139619</v>
+        <v>83.68414754305792</v>
       </c>
       <c r="P20" t="n">
-        <v>393.8273213491394</v>
+        <v>257.1980269736933</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4345721517223</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,22 +9480,22 @@
         <v>72.07217095056873</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939689</v>
       </c>
       <c r="L21" t="n">
         <v>41.3701389028209</v>
       </c>
       <c r="M21" t="n">
-        <v>323.9233118487281</v>
+        <v>326.4803043913813</v>
       </c>
       <c r="N21" t="n">
-        <v>315.5123126066132</v>
+        <v>315.512312606613</v>
       </c>
       <c r="O21" t="n">
-        <v>37.8335195156111</v>
+        <v>331.9231416865148</v>
       </c>
       <c r="P21" t="n">
-        <v>340.3211412084881</v>
+        <v>328.4387322318856</v>
       </c>
       <c r="Q21" t="n">
         <v>71.87358360675522</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07871432485223</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>394.9465076480838</v>
+        <v>100.8568854771797</v>
       </c>
       <c r="L23" t="n">
-        <v>388.9259701028593</v>
+        <v>94.83634793195527</v>
       </c>
       <c r="M23" t="n">
-        <v>79.53237884657497</v>
+        <v>373.6220010174787</v>
       </c>
       <c r="N23" t="n">
-        <v>371.122332896363</v>
+        <v>77.03271072545897</v>
       </c>
       <c r="O23" t="n">
-        <v>83.68414754305793</v>
+        <v>373.6591818032658</v>
       </c>
       <c r="P23" t="n">
-        <v>381.9449123725373</v>
+        <v>393.8273213491391</v>
       </c>
       <c r="Q23" t="n">
-        <v>114.4345721517223</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>72.07217095056873</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>59.0406023793969</v>
+        <v>59.04060237939689</v>
       </c>
       <c r="L24" t="n">
-        <v>335.459761073725</v>
+        <v>41.3701389028209</v>
       </c>
       <c r="M24" t="n">
-        <v>326.4803043913815</v>
+        <v>315.6144521438715</v>
       </c>
       <c r="N24" t="n">
-        <v>303.6299036300111</v>
+        <v>315.512312606613</v>
       </c>
       <c r="O24" t="n">
-        <v>331.9231416865152</v>
+        <v>37.8335195156111</v>
       </c>
       <c r="P24" t="n">
-        <v>46.23151903758408</v>
+        <v>340.3211412084878</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.87358360675523</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056873</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,10 +9963,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>88.51934887028764</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>69.24145227537892</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10191,10 +10191,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>59.0406023793969</v>
       </c>
       <c r="L30" t="n">
-        <v>315.236791312499</v>
+        <v>232.2309168551201</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10206,7 +10206,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>46.23151903758407</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>273.1004740566038</v>
@@ -10425,16 +10425,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>72.07217095056873</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2521357818314</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>70.79084509866779</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.87358360675522</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.07871432485223</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406823</v>
+        <v>116.5027895727013</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>236.7953177599455</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>114.4345721517223</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,25 +10665,25 @@
         <v>72.07217095056873</v>
       </c>
       <c r="K36" t="n">
-        <v>59.04060237939689</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>41.3701389028209</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>605.6799272446581</v>
+        <v>605.6799272446576</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>287.4611702717133</v>
+        <v>242.1923840765841</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.87358360675522</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,7 +10823,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>115.0991480806903</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10838,7 +10838,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>112.0484323611019</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
         <v>114.4345721517223</v>
@@ -10902,16 +10902,16 @@
         <v>72.07217095056873</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939689</v>
       </c>
       <c r="L39" t="n">
-        <v>70.78781419733642</v>
+        <v>154.3251294844446</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>605.6799272446581</v>
+        <v>605.6799272446585</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.87358360675522</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.07871432485223</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11066,10 +11066,10 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>246.6645778481498</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5510017355793</v>
+        <v>106.1011006442036</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>72.07217095056873</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>59.04060237939689</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,10 +11148,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>380.9046255264267</v>
+        <v>283.327510711208</v>
       </c>
       <c r="O42" t="n">
-        <v>37.8335195156111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.07871432485223</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>100.8568854771797</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11309,10 +11309,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>495.0402356415689</v>
+        <v>351.1909559948853</v>
       </c>
       <c r="P44" t="n">
-        <v>401.1674557957293</v>
+        <v>99.73769917823537</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11379,22 +11379,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>459.2330634330399</v>
+        <v>442.6052580213771</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>21.42269043570921</v>
+        <v>607.0474664915553</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>46.23151903758407</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>71.87358360675522</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.7134039554108</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>154.0850344348173</v>
+        <v>206.7247209130925</v>
       </c>
       <c r="D11" t="n">
-        <v>197.7060249576205</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>219.4481625275261</v>
@@ -23270,7 +23270,7 @@
         <v>238.6199786155032</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>239.9403233994415</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>123.8394190353114</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.7134039554108</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>206.7247209130925</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>196.1664364213012</v>
+        <v>197.7060249576205</v>
       </c>
       <c r="E14" t="n">
         <v>219.4481625275261</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>238.6199786155032</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>239.9403233994415</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>162.2197811955899</v>
       </c>
       <c r="W14" t="n">
-        <v>187.5198806735468</v>
+        <v>177.4584727014912</v>
       </c>
       <c r="X14" t="n">
-        <v>206.8201389062934</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1033124.651375139</v>
+        <v>1033124.65137514</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306350.6526029217</v>
+        <v>306350.6526029218</v>
       </c>
       <c r="C2" t="n">
         <v>306350.6526029216</v>
       </c>
       <c r="D2" t="n">
-        <v>306350.6526029216</v>
+        <v>306350.6526029217</v>
       </c>
       <c r="E2" t="n">
-        <v>267714.7192479066</v>
+        <v>267714.7192479069</v>
       </c>
       <c r="F2" t="n">
-        <v>267714.7192479066</v>
+        <v>267714.7192479068</v>
       </c>
       <c r="G2" t="n">
         <v>307049.6241976726</v>
@@ -26332,28 +26332,28 @@
         <v>307049.6241976728</v>
       </c>
       <c r="I2" t="n">
+        <v>307049.6241976727</v>
+      </c>
+      <c r="J2" t="n">
+        <v>307049.6241976721</v>
+      </c>
+      <c r="K2" t="n">
+        <v>307049.6241976724</v>
+      </c>
+      <c r="L2" t="n">
+        <v>307049.6241976722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>307049.6241976726</v>
+      </c>
+      <c r="N2" t="n">
         <v>307049.6241976728</v>
       </c>
-      <c r="J2" t="n">
-        <v>307049.6241976724</v>
-      </c>
-      <c r="K2" t="n">
-        <v>307049.6241976721</v>
-      </c>
-      <c r="L2" t="n">
-        <v>307049.6241976724</v>
-      </c>
-      <c r="M2" t="n">
-        <v>307049.6241976725</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>307049.6241976726</v>
       </c>
-      <c r="O2" t="n">
-        <v>307049.6241976727</v>
-      </c>
       <c r="P2" t="n">
-        <v>307049.6241976726</v>
+        <v>307049.6241976728</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>347410.988042947</v>
+        <v>347410.9880429473</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>153193.994086678</v>
+        <v>153193.9940866782</v>
       </c>
       <c r="K3" t="n">
-        <v>1.462967702536844e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80469.26609315923</v>
+        <v>80469.26609315909</v>
       </c>
       <c r="M3" t="n">
-        <v>63042.685930044</v>
+        <v>63042.68593004424</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>329.0996873050569</v>
+        <v>329.0996873049748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>424293.6514672661</v>
       </c>
       <c r="E4" t="n">
-        <v>312560.3075442404</v>
+        <v>312560.3075442405</v>
       </c>
       <c r="F4" t="n">
-        <v>312560.3075442404</v>
+        <v>312560.3075442403</v>
       </c>
       <c r="G4" t="n">
-        <v>368687.9792090662</v>
+        <v>368687.9792090661</v>
       </c>
       <c r="H4" t="n">
         <v>368687.9792090661</v>
@@ -26439,19 +26439,19 @@
         <v>368687.9792090661</v>
       </c>
       <c r="J4" t="n">
-        <v>358899.8032199899</v>
+        <v>358899.80321999</v>
       </c>
       <c r="K4" t="n">
         <v>358899.80321999</v>
       </c>
       <c r="L4" t="n">
-        <v>358899.80321999</v>
+        <v>358899.8032199899</v>
       </c>
       <c r="M4" t="n">
         <v>360570.8158019182</v>
       </c>
       <c r="N4" t="n">
-        <v>360570.8158019182</v>
+        <v>360570.8158019183</v>
       </c>
       <c r="O4" t="n">
         <v>360532.5601904276</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35612.93854501298</v>
+        <v>35612.93854501301</v>
       </c>
       <c r="F5" t="n">
-        <v>35612.93854501298</v>
+        <v>35612.93854501296</v>
       </c>
       <c r="G5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899521</v>
       </c>
       <c r="H5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899521</v>
       </c>
       <c r="I5" t="n">
-        <v>44069.15195899522</v>
+        <v>44069.15195899521</v>
       </c>
       <c r="J5" t="n">
-        <v>65217.75175230236</v>
+        <v>65217.75175230239</v>
       </c>
       <c r="K5" t="n">
         <v>65217.75175230239</v>
       </c>
       <c r="L5" t="n">
-        <v>65217.7517523024</v>
+        <v>65217.75175230239</v>
       </c>
       <c r="M5" t="n">
-        <v>53962.02217862751</v>
+        <v>53962.02217862749</v>
       </c>
       <c r="N5" t="n">
-        <v>53962.02217862751</v>
+        <v>53962.02217862753</v>
       </c>
       <c r="O5" t="n">
-        <v>54010.84806614028</v>
+        <v>54010.84806614029</v>
       </c>
       <c r="P5" t="n">
-        <v>54010.84806614028</v>
+        <v>54010.84806614029</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151570.5988643444</v>
+        <v>-151574.9674368116</v>
       </c>
       <c r="C6" t="n">
-        <v>-151570.5988643445</v>
+        <v>-151574.9674368117</v>
       </c>
       <c r="D6" t="n">
-        <v>-151570.5988643445</v>
+        <v>-151574.9674368116</v>
       </c>
       <c r="E6" t="n">
-        <v>-427869.5148842937</v>
+        <v>-428115.3580402299</v>
       </c>
       <c r="F6" t="n">
-        <v>-80458.52684134671</v>
+        <v>-80704.36999728227</v>
       </c>
       <c r="G6" t="n">
-        <v>-186176.773063548</v>
+        <v>-186176.7730635479</v>
       </c>
       <c r="H6" t="n">
-        <v>-105707.5069703885</v>
+        <v>-105707.5069703886</v>
       </c>
       <c r="I6" t="n">
-        <v>-105707.5069703886</v>
+        <v>-105707.5069703887</v>
       </c>
       <c r="J6" t="n">
-        <v>-270261.9248612979</v>
+        <v>-270261.9248612985</v>
       </c>
       <c r="K6" t="n">
-        <v>-117067.9307746204</v>
+        <v>-117067.93077462</v>
       </c>
       <c r="L6" t="n">
-        <v>-197537.1968677793</v>
+        <v>-197537.1968677791</v>
       </c>
       <c r="M6" t="n">
         <v>-170525.8997129172</v>
       </c>
       <c r="N6" t="n">
-        <v>-107483.2137828733</v>
+        <v>-107483.213782873</v>
       </c>
       <c r="O6" t="n">
         <v>-107822.8837462002</v>
       </c>
       <c r="P6" t="n">
-        <v>-107493.7840588952</v>
+        <v>-107493.7840588951</v>
       </c>
     </row>
   </sheetData>
@@ -26704,7 +26704,7 @@
         <v>271.9762827838771</v>
       </c>
       <c r="I2" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="J2" t="n">
         <v>100.9948246402459</v>
@@ -26713,13 +26713,13 @@
         <v>100.9948246402459</v>
       </c>
       <c r="L2" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="M2" t="n">
+        <v>179.7981820528011</v>
+      </c>
+      <c r="N2" t="n">
         <v>179.7981820528009</v>
-      </c>
-      <c r="N2" t="n">
-        <v>179.798182052801</v>
       </c>
       <c r="O2" t="n">
         <v>179.3899400290041</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709046</v>
       </c>
       <c r="F4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="G4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="H4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="I4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="J4" t="n">
-        <v>878.3468589798525</v>
+        <v>878.3468589798531</v>
       </c>
       <c r="K4" t="n">
         <v>878.3468589798531</v>
@@ -26820,16 +26820,16 @@
         <v>878.3468589798531</v>
       </c>
       <c r="M4" t="n">
-        <v>584.2572368089488</v>
+        <v>584.2572368089484</v>
       </c>
       <c r="N4" t="n">
-        <v>584.2572368089488</v>
+        <v>584.2572368089493</v>
       </c>
       <c r="O4" t="n">
-        <v>585.624776055846</v>
+        <v>585.6247760558462</v>
       </c>
       <c r="P4" t="n">
-        <v>585.624776055846</v>
+        <v>585.6247760558462</v>
       </c>
     </row>
   </sheetData>
@@ -26926,22 +26926,22 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4082420237969018</v>
+        <v>0.4082420237968449</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100.586582616449</v>
+        <v>100.5865826164489</v>
       </c>
       <c r="M2" t="n">
-        <v>78.803357412555</v>
+        <v>78.8033574125553</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709046</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-3.688391142564712e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>584.2572368089485</v>
+        <v>584.2572368089493</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.367539246897195</v>
+        <v>1.367539246896854</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4082420237969018</v>
+        <v>0.4082420237968449</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28172,10 +28172,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>116.3758631224655</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28184,7 +28184,7 @@
         <v>127.1132721997666</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28220,22 +28220,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>171.3897001674281</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>171.3897001674281</v>
       </c>
       <c r="X12" t="n">
-        <v>171.3897001674281</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>32.64992580807302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28248,7 +28248,7 @@
         <v>171.3897001674281</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
         <v>151.5411742405149</v>
@@ -28263,7 +28263,7 @@
         <v>166.9556149377512</v>
       </c>
       <c r="H13" t="n">
-        <v>92.52985695019925</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I13" t="n">
         <v>134.4929323504436</v>
@@ -28305,10 +28305,10 @@
         <v>171.3897001674281</v>
       </c>
       <c r="V13" t="n">
-        <v>171.3897001674281</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>171.3897001674281</v>
+        <v>112.0549615054142</v>
       </c>
       <c r="X13" t="n">
         <v>171.3897001674281</v>
@@ -28406,13 +28406,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>113.3225262583921</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -28424,7 +28424,7 @@
         <v>95.77124205704071</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.4074501722953</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,16 +28457,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>171.3897001674281</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
-        <v>121.2616207151909</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>171.3897001674281</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>171.3897001674281</v>
@@ -28488,7 +28488,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
         <v>150.4889240962943</v>
@@ -28530,7 +28530,7 @@
         <v>15.1298096364891</v>
       </c>
       <c r="R16" t="n">
-        <v>56.48116729965624</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S16" t="n">
         <v>171.3897001674281</v>
@@ -28539,13 +28539,13 @@
         <v>171.3897001674281</v>
       </c>
       <c r="U16" t="n">
-        <v>171.3897001674281</v>
+        <v>112.0549615054141</v>
       </c>
       <c r="V16" t="n">
         <v>171.3897001674281</v>
       </c>
       <c r="W16" t="n">
-        <v>171.3897001674281</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>171.3897001674281</v>
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
@@ -28652,16 +28652,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>127.1132721997666</v>
       </c>
       <c r="H18" t="n">
-        <v>95.77124205704071</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.4074501722953</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.82520712046109</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>40.06001130137054</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28703,10 +28703,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>106.8762163808736</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -28725,16 +28725,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H19" t="n">
         <v>155.3344859367049</v>
@@ -28743,7 +28743,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J19" t="n">
-        <v>10.5281210663774</v>
+        <v>40.0186762889081</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S19" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.6724362179661</v>
       </c>
       <c r="U19" t="n">
-        <v>271.9762827838771</v>
+        <v>241.9330204337413</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>271.9762827838771</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.0416594209518</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>9.357713049041465</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I21" t="n">
         <v>56.4074501722953</v>
@@ -28928,22 +28928,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.4764132683503</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>216.2882692949636</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28980,7 +28980,7 @@
         <v>134.4929323504436</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.0186762889081</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,16 +29001,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S22" t="n">
-        <v>206.781276689585</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6724362179661</v>
+        <v>208.7543061117626</v>
       </c>
       <c r="U22" t="n">
         <v>271.9762827838771</v>
@@ -29019,13 +29019,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>271.9762827838771</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>62.4932096944755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="C23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="D23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="E23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="F23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="G23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="H23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="I23" t="n">
-        <v>147.4593084706912</v>
+        <v>147.459308470692</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.23037211170274</v>
+        <v>51.23037211170273</v>
       </c>
       <c r="S23" t="n">
         <v>171.3897001674281</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874490740672</v>
       </c>
       <c r="V23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="W23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="X23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="Y23" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
     </row>
     <row r="24">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
         <v>127.1132721997666</v>
@@ -29162,19 +29162,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.82520712046109</v>
+        <v>31.72280324587513</v>
       </c>
       <c r="S24" t="n">
-        <v>145.180098865789</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>164.9740638133213</v>
+        <v>185.4764132683503</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2882692949636</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -29208,13 +29208,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9556149377512</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>155.3344859367049</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.4929323504436</v>
       </c>
       <c r="J25" t="n">
         <v>40.0186762889081</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.1298096364891</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S25" t="n">
-        <v>85.74292239631379</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6724362179661</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.9762827838771</v>
+        <v>271.9762827838772</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>271.9762827838771</v>
+        <v>199.6291738678303</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29299,7 +29299,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="K26" t="n">
-        <v>100.9948246402459</v>
+        <v>40.8778753690176</v>
       </c>
       <c r="L26" t="n">
         <v>100.9948246402459</v>
@@ -29308,16 +29308,16 @@
         <v>100.9948246402459</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>100.9948246402459</v>
-      </c>
-      <c r="O26" t="n">
-        <v>40.87787536901516</v>
       </c>
       <c r="P26" t="n">
         <v>100.9948246402459</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="R26" t="n">
         <v>100.9948246402459</v>
@@ -29469,7 +29469,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="O28" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402468</v>
       </c>
       <c r="P28" t="n">
         <v>100.9948246402459</v>
@@ -29539,16 +29539,16 @@
         <v>100.9948246402459</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>100.9948246402459</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
       <c r="N29" t="n">
-        <v>40.87787536901749</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="O29" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901743</v>
       </c>
       <c r="P29" t="n">
         <v>100.9948246402459</v>
@@ -29706,7 +29706,7 @@
         <v>100.9948246402459</v>
       </c>
       <c r="O31" t="n">
-        <v>100.9948246402468</v>
+        <v>100.9948246402459</v>
       </c>
       <c r="P31" t="n">
         <v>100.9948246402459</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="C32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="E32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="F32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="G32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="H32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="I32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="J32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="K32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="L32" t="n">
-        <v>100.9948246402459</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>40.87787536901749</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="O32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="P32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.9948246402459</v>
+        <v>40.87787536901803</v>
       </c>
       <c r="R32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="S32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="T32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="U32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="V32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="W32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="X32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="C34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="E34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="F34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="G34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="H34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="I34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="J34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="K34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="L34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="M34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="N34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="O34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="P34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402494</v>
       </c>
       <c r="R34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="S34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="T34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="U34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="V34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="W34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="X34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.9948246402459</v>
+        <v>100.9948246402458</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="C35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="D35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="E35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="F35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="G35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="H35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="I35" t="n">
         <v>147.459308470692</v>
@@ -30037,22 +30037,22 @@
         <v>171.3897001674281</v>
       </c>
       <c r="T35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="U35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="V35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="W35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="X35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="Y35" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>56.37822884171882</v>
+        <v>56.37822884172058</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7981820528009</v>
+        <v>61.60407019317675</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>32.29481223667099</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30192,25 +30192,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="T37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="U37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="X37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
       <c r="Y37" t="n">
-        <v>179.7981820528009</v>
+        <v>179.7981820528011</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="C38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="D38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="E38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="F38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="G38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="H38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="I38" t="n">
         <v>147.459308470692</v>
@@ -30274,22 +30274,22 @@
         <v>171.3897001674281</v>
       </c>
       <c r="T38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="U38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="V38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="W38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="X38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="Y38" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
     </row>
     <row r="39">
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.1132721997666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.4074501722953</v>
+        <v>56.37822884171705</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>127.0840508691904</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30429,25 +30429,25 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S40" t="n">
-        <v>179.798182052801</v>
+        <v>61.60407019317753</v>
       </c>
       <c r="T40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="V40" t="n">
-        <v>179.798182052801</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="X40" t="n">
-        <v>61.60407019317685</v>
+        <v>179.7981820528009</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.798182052801</v>
+        <v>179.7981820528009</v>
       </c>
     </row>
     <row r="41">
@@ -30545,13 +30545,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.1132721997666</v>
+        <v>32.62662488842886</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>51.07108253236028</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30660,19 +30660,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.1298096364891</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>135.6644318885835</v>
       </c>
       <c r="S43" t="n">
-        <v>20.32801419553775</v>
+        <v>79.18333197244765</v>
       </c>
       <c r="T43" t="n">
         <v>179.3899400290041</v>
       </c>
       <c r="U43" t="n">
-        <v>179.3899400290041</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>179.3899400290041</v>
@@ -30785,13 +30785,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.41311267508561</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>95.77124205704071</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.82520712046109</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>139.3591476116657</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30903,10 +30903,10 @@
         <v>135.6644318885835</v>
       </c>
       <c r="S46" t="n">
-        <v>179.3899400290041</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>179.3899400290041</v>
+        <v>64.0535223359586</v>
       </c>
       <c r="U46" t="n">
         <v>179.3899400290041</v>
@@ -30915,10 +30915,10 @@
         <v>179.3899400290041</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="X46" t="n">
-        <v>64.05352233595835</v>
+        <v>179.3899400290041</v>
       </c>
       <c r="Y46" t="n">
         <v>179.3899400290041</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6129231134842086</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H23" t="n">
-        <v>6.277098835970152</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I23" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J23" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K23" t="n">
-        <v>77.96611849686695</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L23" t="n">
-        <v>96.72386423115933</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M23" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N23" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O23" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P23" t="n">
-        <v>88.13910987292111</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.18880087126787</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R23" t="n">
-        <v>38.50153152740245</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S23" t="n">
         <v>13.96698544852142</v>
       </c>
       <c r="T23" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H24" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I24" t="n">
         <v>11.29101228454431</v>
       </c>
       <c r="J24" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K24" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L24" t="n">
-        <v>71.20529466832687</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M24" t="n">
-        <v>83.09322034116235</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N24" t="n">
-        <v>85.29245063199909</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O24" t="n">
-        <v>78.02592909549999</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P24" t="n">
-        <v>62.62268698655924</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q24" t="n">
         <v>41.86160783813727</v>
@@ -32813,10 +32813,10 @@
         <v>20.36121909554258</v>
       </c>
       <c r="S24" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T24" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U24" t="n">
         <v>0.02157518270932034</v>
@@ -32859,7 +32859,7 @@
         <v>0.2749362080772405</v>
       </c>
       <c r="H25" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I25" t="n">
         <v>8.268081602904653</v>
@@ -32868,16 +32868,16 @@
         <v>19.4379899110609</v>
       </c>
       <c r="K25" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L25" t="n">
-        <v>40.87551588086537</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M25" t="n">
-        <v>43.09750032614415</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N25" t="n">
-        <v>42.07273809603811</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O25" t="n">
         <v>38.86098330168124</v>
@@ -32892,7 +32892,7 @@
         <v>12.3621316831821</v>
       </c>
       <c r="S25" t="n">
-        <v>4.791388280764271</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T25" t="n">
         <v>1.174727434511845</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6129231134842086</v>
+        <v>0.6129231134842087</v>
       </c>
       <c r="H26" t="n">
-        <v>6.277098835970152</v>
+        <v>6.277098835970154</v>
       </c>
       <c r="I26" t="n">
-        <v>23.62971833259997</v>
+        <v>23.62971833259998</v>
       </c>
       <c r="J26" t="n">
-        <v>52.02108310308039</v>
+        <v>52.02108310308041</v>
       </c>
       <c r="K26" t="n">
-        <v>77.96611849686695</v>
+        <v>77.96611849686697</v>
       </c>
       <c r="L26" t="n">
-        <v>96.72386423115933</v>
+        <v>96.72386423115934</v>
       </c>
       <c r="M26" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N26" t="n">
-        <v>109.3654034467711</v>
+        <v>109.3654034467712</v>
       </c>
       <c r="O26" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P26" t="n">
-        <v>88.13910987292111</v>
+        <v>88.13910987292113</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.18880087126787</v>
+        <v>66.18880087126789</v>
       </c>
       <c r="R26" t="n">
-        <v>38.50153152740245</v>
+        <v>38.50153152740246</v>
       </c>
       <c r="S26" t="n">
         <v>13.96698544852142</v>
       </c>
       <c r="T26" t="n">
-        <v>2.683070929277124</v>
+        <v>2.683070929277125</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04903384907873667</v>
+        <v>0.04903384907873669</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.327942777181669</v>
+        <v>0.3279427771816691</v>
       </c>
       <c r="H27" t="n">
-        <v>3.167236821728225</v>
+        <v>3.167236821728226</v>
       </c>
       <c r="I27" t="n">
         <v>11.29101228454431</v>
       </c>
       <c r="J27" t="n">
-        <v>30.98340071609795</v>
+        <v>30.98340071609796</v>
       </c>
       <c r="K27" t="n">
-        <v>52.95556678726977</v>
+        <v>52.95556678726979</v>
       </c>
       <c r="L27" t="n">
-        <v>71.20529466832687</v>
+        <v>71.20529466832689</v>
       </c>
       <c r="M27" t="n">
-        <v>83.09322034116235</v>
+        <v>83.09322034116236</v>
       </c>
       <c r="N27" t="n">
-        <v>85.29245063199909</v>
+        <v>85.2924506319991</v>
       </c>
       <c r="O27" t="n">
-        <v>78.02592909549999</v>
+        <v>78.0259290955</v>
       </c>
       <c r="P27" t="n">
-        <v>62.62268698655924</v>
+        <v>62.62268698655925</v>
       </c>
       <c r="Q27" t="n">
         <v>41.86160783813727</v>
@@ -33050,10 +33050,10 @@
         <v>20.36121909554258</v>
       </c>
       <c r="S27" t="n">
-        <v>6.091393251598102</v>
+        <v>6.091393251598104</v>
       </c>
       <c r="T27" t="n">
-        <v>1.321839527324358</v>
+        <v>1.321839527324359</v>
       </c>
       <c r="U27" t="n">
         <v>0.02157518270932034</v>
@@ -33096,7 +33096,7 @@
         <v>0.2749362080772405</v>
       </c>
       <c r="H28" t="n">
-        <v>2.444432831814012</v>
+        <v>2.444432831814013</v>
       </c>
       <c r="I28" t="n">
         <v>8.268081602904653</v>
@@ -33105,16 +33105,16 @@
         <v>19.4379899110609</v>
       </c>
       <c r="K28" t="n">
-        <v>31.94258853842847</v>
+        <v>31.94258853842848</v>
       </c>
       <c r="L28" t="n">
-        <v>40.87551588086537</v>
+        <v>40.87551588086539</v>
       </c>
       <c r="M28" t="n">
-        <v>43.09750032614415</v>
+        <v>43.09750032614416</v>
       </c>
       <c r="N28" t="n">
-        <v>42.07273809603811</v>
+        <v>42.07273809603812</v>
       </c>
       <c r="O28" t="n">
         <v>38.86098330168124</v>
@@ -33129,7 +33129,7 @@
         <v>12.3621316831821</v>
       </c>
       <c r="S28" t="n">
-        <v>4.791388280764271</v>
+        <v>4.791388280764272</v>
       </c>
       <c r="T28" t="n">
         <v>1.174727434511845</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6129231134842087</v>
+        <v>0.6129231134842086</v>
       </c>
       <c r="H29" t="n">
-        <v>6.277098835970154</v>
+        <v>6.277098835970152</v>
       </c>
       <c r="I29" t="n">
-        <v>23.62971833259998</v>
+        <v>23.62971833259997</v>
       </c>
       <c r="J29" t="n">
-        <v>52.02108310308041</v>
+        <v>52.02108310308039</v>
       </c>
       <c r="K29" t="n">
-        <v>77.96611849686697</v>
+        <v>77.96611849686695</v>
       </c>
       <c r="L29" t="n">
-        <v>96.72386423115934</v>
+        <v>96.72386423115933</v>
       </c>
       <c r="M29" t="n">
         <v>107.6239356505841</v>
       </c>
       <c r="N29" t="n">
-        <v>109.3654034467712</v>
+        <v>109.3654034467711</v>
       </c>
       <c r="O29" t="n">
         <v>103.2706492370625</v>
       </c>
       <c r="P29" t="n">
-        <v>88.13910987292113</v>
+        <v>88.13910987292111</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.18880087126789</v>
+        <v>66.18880087126787</v>
       </c>
       <c r="R29" t="n">
-        <v>38.50153152740246</v>
+        <v>38.50153152740245</v>
       </c>
       <c r="S29" t="n">
         <v>13.96698544852142</v>
       </c>
       <c r="T29" t="n">
-        <v>2.683070929277125</v>
+        <v>2.683070929277124</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04903384907873669</v>
+        <v>0.04903384907873667</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3279427771816691</v>
+        <v>0.327942777181669</v>
       </c>
       <c r="H30" t="n">
-        <v>3.167236821728226</v>
+        <v>3.167236821728225</v>
       </c>
       <c r="I30" t="n">
         <v>11.29101228454431</v>
       </c>
       <c r="J30" t="n">
-        <v>30.98340071609796</v>
+        <v>30.98340071609795</v>
       </c>
       <c r="K30" t="n">
-        <v>52.95556678726979</v>
+        <v>52.95556678726977</v>
       </c>
       <c r="L30" t="n">
-        <v>71.20529466832689</v>
+        <v>71.20529466832687</v>
       </c>
       <c r="M30" t="n">
-        <v>83.09322034116236</v>
+        <v>83.09322034116235</v>
       </c>
       <c r="N30" t="n">
-        <v>85.2924506319991</v>
+        <v>85.29245063199909</v>
       </c>
       <c r="O30" t="n">
-        <v>78.0259290955</v>
+        <v>78.02592909549999</v>
       </c>
       <c r="P30" t="n">
-        <v>62.62268698655925</v>
+        <v>62.62268698655924</v>
       </c>
       <c r="Q30" t="n">
         <v>41.86160783813727</v>
@@ -33287,10 +33287,10 @@
         <v>20.36121909554258</v>
       </c>
       <c r="S30" t="n">
-        <v>6.091393251598104</v>
+        <v>6.091393251598102</v>
       </c>
       <c r="T30" t="n">
-        <v>1.321839527324359</v>
+        <v>1.321839527324358</v>
       </c>
       <c r="U30" t="n">
         <v>0.02157518270932034</v>
@@ -33333,7 +33333,7 @@
         <v>0.2749362080772405</v>
       </c>
       <c r="H31" t="n">
-        <v>2.444432831814013</v>
+        <v>2.444432831814012</v>
       </c>
       <c r="I31" t="n">
         <v>8.268081602904653</v>
@@ -33342,16 +33342,16 @@
         <v>19.4379899110609</v>
       </c>
       <c r="K31" t="n">
-        <v>31.94258853842848</v>
+        <v>31.94258853842847</v>
       </c>
       <c r="L31" t="n">
-        <v>40.87551588086539</v>
+        <v>40.87551588086537</v>
       </c>
       <c r="M31" t="n">
-        <v>43.09750032614416</v>
+        <v>43.09750032614415</v>
       </c>
       <c r="N31" t="n">
-        <v>42.07273809603812</v>
+        <v>42.07273809603811</v>
       </c>
       <c r="O31" t="n">
         <v>38.86098330168124</v>
@@ -33366,7 +33366,7 @@
         <v>12.3621316831821</v>
       </c>
       <c r="S31" t="n">
-        <v>4.791388280764272</v>
+        <v>4.791388280764271</v>
       </c>
       <c r="T31" t="n">
         <v>1.174727434511845</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>120.6322974881487</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>120.6322974881482</v>
+        <v>294.0896221709046</v>
       </c>
       <c r="N11" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709046</v>
       </c>
       <c r="O11" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709046</v>
       </c>
       <c r="P11" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>161.5749157061537</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>294.0896221709046</v>
       </c>
       <c r="M12" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709046</v>
       </c>
       <c r="N12" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>294.089622170904</v>
+        <v>283.2237699233958</v>
       </c>
       <c r="P12" t="n">
-        <v>282.2072131943019</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>124.7468853988437</v>
       </c>
       <c r="K14" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="L14" t="n">
-        <v>157.4603277954583</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>157.460327795458</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>282.2072131943019</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N15" t="n">
-        <v>294.089622170904</v>
+        <v>283.223769923394</v>
       </c>
       <c r="O15" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="O17" t="n">
-        <v>282.2072131943019</v>
+        <v>120.6322974881479</v>
       </c>
       <c r="P17" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>284.7642057369553</v>
       </c>
       <c r="L18" t="n">
-        <v>294.089622170904</v>
+        <v>90.30573917840147</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>291.5326296282507</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="M20" t="n">
-        <v>120.6322974881482</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N20" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>294.089622170904</v>
+        <v>157.460327795458</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.5749157061537</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>284.7642057369553</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>291.5326296282506</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N21" t="n">
-        <v>294.089622170904</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="P21" t="n">
-        <v>294.089622170904</v>
+        <v>282.2072131943016</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-8.289665250534503e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K23" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="N23" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>289.9750342602079</v>
       </c>
       <c r="P23" t="n">
-        <v>282.2072131943019</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>294.089622170904</v>
+        <v>283.223769923394</v>
       </c>
       <c r="N24" t="n">
-        <v>282.2072131943019</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="O24" t="n">
-        <v>294.089622170904</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>294.0896221709037</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.88621252291676</v>
+        <v>65.88621252291678</v>
       </c>
       <c r="L25" t="n">
         <v>142.49882840638</v>
@@ -36595,7 +36595,7 @@
         <v>225.7417100390896</v>
       </c>
       <c r="K26" t="n">
-        <v>421.5269755055803</v>
+        <v>361.410026234352</v>
       </c>
       <c r="L26" t="n">
         <v>549.1180556238762</v>
@@ -36604,19 +36604,19 @@
         <v>605.8300393343532</v>
       </c>
       <c r="N26" t="n">
-        <v>592.5131156503662</v>
+        <v>491.5182910101204</v>
       </c>
       <c r="O26" t="n">
-        <v>452.2339634675261</v>
+        <v>512.3509127387568</v>
       </c>
       <c r="P26" t="n">
-        <v>419.5954460849379</v>
+        <v>419.595446084938</v>
       </c>
       <c r="Q26" t="n">
-        <v>161.5749157061537</v>
+        <v>262.5697403463996</v>
       </c>
       <c r="R26" t="n">
-        <v>49.76445252854316</v>
+        <v>49.76445252854314</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.84617499196276</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>284.7642057369553</v>
@@ -36683,10 +36683,10 @@
         <v>573.0259006545224</v>
       </c>
       <c r="N27" t="n">
-        <v>67.09665843457842</v>
+        <v>601.7223962109103</v>
       </c>
       <c r="O27" t="n">
-        <v>474.1874955441372</v>
+        <v>31.40793275976781</v>
       </c>
       <c r="P27" t="n">
         <v>367.7700801943342</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.9761483513378</v>
+        <v>60.97614835133777</v>
       </c>
       <c r="K28" t="n">
         <v>166.8810371631627</v>
@@ -36762,16 +36762,16 @@
         <v>263.2776846912403</v>
       </c>
       <c r="N28" t="n">
-        <v>262.6860897560824</v>
+        <v>262.6860897560823</v>
       </c>
       <c r="O28" t="n">
-        <v>239.3140367254521</v>
+        <v>239.314036725453</v>
       </c>
       <c r="P28" t="n">
         <v>197.8516383154724</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.86501500375678</v>
+        <v>85.86501500375677</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>421.5269755055803</v>
       </c>
       <c r="L29" t="n">
-        <v>549.1180556238762</v>
+        <v>448.1232309836303</v>
       </c>
       <c r="M29" t="n">
-        <v>504.8352146941073</v>
+        <v>605.8300393343532</v>
       </c>
       <c r="N29" t="n">
-        <v>532.3961663791379</v>
+        <v>592.5131156503662</v>
       </c>
       <c r="O29" t="n">
-        <v>512.3509127387568</v>
+        <v>452.2339634675284</v>
       </c>
       <c r="P29" t="n">
-        <v>419.595446084938</v>
+        <v>419.5954460849379</v>
       </c>
       <c r="Q29" t="n">
         <v>262.5697403463996</v>
       </c>
       <c r="R29" t="n">
-        <v>49.76445252854314</v>
+        <v>49.76445252854315</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>91.84617499196276</v>
       </c>
       <c r="K30" t="n">
-        <v>284.7642057369553</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>273.8666524096781</v>
+        <v>190.8607779522992</v>
       </c>
       <c r="M30" t="n">
         <v>573.0259006545224</v>
@@ -36923,10 +36923,10 @@
         <v>601.7223962109103</v>
       </c>
       <c r="O30" t="n">
-        <v>474.1874955441373</v>
+        <v>474.1874955441372</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>367.7700801943342</v>
       </c>
       <c r="Q30" t="n">
         <v>201.2268904498486</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.97614835133777</v>
+        <v>60.97614835133778</v>
       </c>
       <c r="K31" t="n">
         <v>166.8810371631627</v>
@@ -37002,13 +37002,13 @@
         <v>262.6860897560823</v>
       </c>
       <c r="O31" t="n">
-        <v>239.314036725453</v>
+        <v>239.3140367254521</v>
       </c>
       <c r="P31" t="n">
         <v>197.8516383154724</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86501500375677</v>
+        <v>85.86501500375678</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.7417100390896</v>
+        <v>225.7417100390894</v>
       </c>
       <c r="K32" t="n">
-        <v>421.5269755055803</v>
+        <v>421.5269755055801</v>
       </c>
       <c r="L32" t="n">
-        <v>549.1180556238762</v>
+        <v>448.1232309836303</v>
       </c>
       <c r="M32" t="n">
-        <v>545.7130900631248</v>
+        <v>605.830039334353</v>
       </c>
       <c r="N32" t="n">
-        <v>491.5182910101204</v>
+        <v>592.5131156503662</v>
       </c>
       <c r="O32" t="n">
-        <v>512.3509127387568</v>
+        <v>512.3509127387567</v>
       </c>
       <c r="P32" t="n">
-        <v>419.595446084938</v>
+        <v>419.5954460849379</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.5697403463996</v>
+        <v>202.4527910751718</v>
       </c>
       <c r="R32" t="n">
-        <v>49.76445252854318</v>
+        <v>49.76445252854302</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>91.84617499196276</v>
       </c>
       <c r="K33" t="n">
-        <v>43.21153340243451</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L33" t="n">
         <v>440.722309991676</v>
       </c>
       <c r="M33" t="n">
-        <v>573.0259006545224</v>
+        <v>38.40016287819026</v>
       </c>
       <c r="N33" t="n">
         <v>601.7223962109103</v>
@@ -37166,7 +37166,7 @@
         <v>367.7700801943342</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.97614835133781</v>
+        <v>60.97614835133766</v>
       </c>
       <c r="K34" t="n">
-        <v>166.8810371631627</v>
+        <v>166.8810371631625</v>
       </c>
       <c r="L34" t="n">
-        <v>243.4936530466259</v>
+        <v>243.4936530466258</v>
       </c>
       <c r="M34" t="n">
-        <v>263.2776846912403</v>
+        <v>263.2776846912402</v>
       </c>
       <c r="N34" t="n">
-        <v>262.6860897560824</v>
+        <v>262.6860897560822</v>
       </c>
       <c r="O34" t="n">
-        <v>239.3140367254521</v>
+        <v>239.3140367254519</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8516383154724</v>
+        <v>197.8516383154723</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.86501500375681</v>
+        <v>85.86501500376035</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K35" t="n">
         <v>320.5321508653344</v>
@@ -37312,7 +37312,7 @@
         <v>448.1232309836303</v>
       </c>
       <c r="M35" t="n">
-        <v>504.8352146941073</v>
+        <v>36.97041072612631</v>
       </c>
       <c r="N35" t="n">
         <v>491.5182910101204</v>
@@ -37321,10 +37321,10 @@
         <v>411.356088098511</v>
       </c>
       <c r="P35" t="n">
-        <v>137.0576185817102</v>
+        <v>318.600621444692</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>161.5749157061537</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>284.7642057369553</v>
       </c>
       <c r="L36" t="n">
-        <v>440.722309991676</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>573.0259006545224</v>
       </c>
       <c r="N36" t="n">
-        <v>584.2572368089488</v>
+        <v>584.2572368089484</v>
       </c>
       <c r="O36" t="n">
         <v>474.1874955441373</v>
       </c>
       <c r="P36" t="n">
-        <v>241.2296512341293</v>
+        <v>195.9608650390001</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>124.7468853988437</v>
       </c>
       <c r="K38" t="n">
-        <v>320.5321508653344</v>
+        <v>14.24226260351059</v>
       </c>
       <c r="L38" t="n">
         <v>448.1232309836303</v>
@@ -37558,7 +37558,7 @@
         <v>411.356088098511</v>
       </c>
       <c r="P38" t="n">
-        <v>12.31073318286653</v>
+        <v>318.600621444692</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>284.7642057369553</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.41767529451553</v>
+        <v>112.9549905816237</v>
       </c>
       <c r="M39" t="n">
         <v>573.0259006545224</v>
       </c>
       <c r="N39" t="n">
-        <v>584.2572368089488</v>
+        <v>584.2572368089493</v>
       </c>
       <c r="O39" t="n">
         <v>474.1874955441373</v>
@@ -37640,7 +37640,7 @@
         <v>367.7700801943342</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>201.2268904498486</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K41" t="n">
         <v>320.5321508653344</v>
@@ -37786,10 +37786,10 @@
         <v>448.1232309836303</v>
       </c>
       <c r="M41" t="n">
-        <v>167.1321990015748</v>
+        <v>504.8352146941073</v>
       </c>
       <c r="N41" t="n">
-        <v>491.5182910101204</v>
+        <v>29.06838991874462</v>
       </c>
       <c r="O41" t="n">
         <v>411.356088098511</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>91.84617499196276</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>284.7642057369553</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>440.722309991676</v>
@@ -37868,10 +37868,10 @@
         <v>573.0259006545224</v>
       </c>
       <c r="N42" t="n">
-        <v>359.4819350907175</v>
+        <v>261.9048202754988</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>474.1874955441373</v>
       </c>
       <c r="P42" t="n">
         <v>367.7700801943342</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.7468853988437</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>320.5321508653344</v>
       </c>
       <c r="L44" t="n">
         <v>448.1232309836303</v>
@@ -38029,10 +38029,10 @@
         <v>491.5182910101204</v>
       </c>
       <c r="O44" t="n">
-        <v>411.356088098511</v>
+        <v>267.5068084518273</v>
       </c>
       <c r="P44" t="n">
-        <v>301.4297566174939</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>161.5749157061537</v>
@@ -38099,22 +38099,22 @@
         <v>284.7642057369553</v>
       </c>
       <c r="L45" t="n">
-        <v>417.862924530219</v>
+        <v>401.2351191185562</v>
       </c>
       <c r="M45" t="n">
         <v>573.0259006545224</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>585.6247760558462</v>
       </c>
       <c r="O45" t="n">
         <v>474.1874955441373</v>
       </c>
       <c r="P45" t="n">
-        <v>367.7700801943342</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>201.2268904498486</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
